--- a/internal_controls.xlsx
+++ b/internal_controls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4099" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4099" uniqueCount="721">
   <si>
     <t>CardholderLastName</t>
   </si>
@@ -1399,109 +1399,121 @@
     <t>['THACKER G', 'AL-HARAKE M']</t>
   </si>
   <si>
-    <t>50MM (2) ID CYLINDRICAL H PCE</t>
-  </si>
-  <si>
-    <t>PORTABLE BAND SAW BLADEB EA|DRAIN VALVEELECTRIC EA</t>
-  </si>
-  <si>
-    <t>PROSUPPORT: 4-HOUR 7X24 ON PCE|PROSUPPORT PLUS: 7X</t>
-  </si>
-  <si>
-    <t>SHIPPING-FUEL SURCHARGE EA|TISSUE CULT PLATE 6W CS</t>
-  </si>
-  <si>
-    <t>EOS 6D DGTL CAM W/24-105MM EA|EOS 6D DIGITAL CAM W</t>
-  </si>
-  <si>
-    <t>PYREX VISTA BEAKER 600 ML PCE</t>
-  </si>
-  <si>
-    <t>MODULAR STACKING RACK16X EA</t>
-  </si>
-  <si>
-    <t>MOTORPSC1/2 HP1075208 EA|RUN CAPACITOR10 MFD370 EA</t>
-  </si>
-  <si>
-    <t>ECO LIGHT G0724LD-BKSS-I 1 PCE</t>
-  </si>
-  <si>
-    <t>CTRLVLVASSYHDLSTORCHESFGSI EA</t>
-  </si>
-  <si>
-    <t>001802 KEY CAB PRO 60 EA</t>
-  </si>
-  <si>
-    <t>CRC MARINE HYPOID 90 OUTBO PCE</t>
-  </si>
-  <si>
-    <t>SHIPPING-FUEL SURCHARGE EA|PLASTIC WRAP 11.5INX EA</t>
-  </si>
-  <si>
-    <t>TIPS EPTIPS RACK 0.1-5ML C CS|VWR TAPE PNK 1/2X500</t>
-  </si>
-  <si>
-    <t>VWR TIP TUBEGARD 10UL PK13 CS</t>
-  </si>
-  <si>
-    <t>MUELLR HINTN W/1% GC PK</t>
-  </si>
-  <si>
-    <t>THE ABC'S OF SELLING YOUR PCE</t>
-  </si>
-  <si>
-    <t>074949535 PCS</t>
-  </si>
-  <si>
-    <t>HANDBOOK OF THE PSYCHOLOGY PCE</t>
-  </si>
-  <si>
-    <t>273350 EA</t>
-  </si>
-  <si>
-    <t>CULT PLATE MOUSE 6-W CS|WIRE BAG HOLDER FOR EA</t>
-  </si>
-  <si>
-    <t>THE BLACK BODY IN ECSTASY: PCE</t>
-  </si>
-  <si>
-    <t>ALUMINUM FOIL 12IN X EA</t>
-  </si>
-  <si>
-    <t>BENTONITE POWDER 500GM EA</t>
-  </si>
-  <si>
-    <t>282656 EA</t>
-  </si>
-  <si>
-    <t>BIC PENCIL - COLOR EACH|SHARPENING PER PIECE EACH|</t>
-  </si>
-  <si>
-    <t>VWR CONTAINER 10%NBF 90ML CS</t>
-  </si>
-  <si>
-    <t>SILVER/DEMING DRILL1 IN EA|JOBBER BIT1/2 IN.COBALT</t>
-  </si>
-  <si>
-    <t>KOBALT PROFESSIONAL LCD HE EA</t>
-  </si>
-  <si>
-    <t>VWR FREEZER MANUAL DEFROST EA</t>
-  </si>
-  <si>
-    <t>L ACRYLAMIDE/BIS-ACRYLAMI EA</t>
-  </si>
-  <si>
-    <t>PROGESTERONE ANTISERUM DE EA</t>
-  </si>
-  <si>
-    <t>POWERDOCK 5 -MULTI-CHARGER PCE</t>
-  </si>
-  <si>
-    <t>IGNITORHOT SURFACE EA</t>
-  </si>
-  <si>
-    <t>SANDISK ULTRA 32GB UHI-I/C PCE</t>
+    <t>['GENERAL PURCHASE']</t>
+  </si>
+  <si>
+    <t>['50MM (2) ID CYLINDRICAL H PCE', 'NORTHWEST ENTERPRISES HARD PCE|ENERGIZER ADVANCED', 'SARGENT ART 66-2012 12-COU PCE|SPARCO SPR1 CHALKBO', 'CHAMPION SPORTS 330FT OR 1 PCE|HEATHROW SCIENTIFIC', 'ERGOTRON WORKFIT-C SINGLE PCE', 'THE ART SPIRIT (ICON EDITI PCE', 'THE NEW AMERICAN HEART ASS PCE', 'BRADLEY CHERRY BISQUETTES PCE', 'BRADLEY MESQUITE BISQUETTE PCE', 'THE BATHING COSTUME: OR TH PCE', 'STRONGER THAN STEEL: SPIDE PCE', '1/8 INCH MAP TACKS - WHITE PCE', 'PANASONIC CR2450 3V COIN L PCE', 'APPLE IPAD WITH RETINA DIS PCE', 'SHARKK    IPAD KEYBOARD WI PCE', 'BOXWAVE CLEARTOUCH ULTRA A PCE', 'ACTIVE AQUA CHILLER REFRIG PCE']</t>
+  </si>
+  <si>
+    <t>['PORTABLE BAND SAW BLADEB EA|DRAIN VALVEELECTRIC EA', 'PUMP WITH SIDE MOUNTED FL EA', 'RELAYDPDT8 PINS24VDC EA', 'FORMALDEHYDE SOLDIFIIER2 EA', 'LABORATORY LINER LABMAT W EA|SAFETY GLASSESCLEARSC', 'SPRING PINCOILSTL7/32X EA', 'REVERSIBLE WRENCH SETSAE EA', 'RADIANT CEILING HEATER12 EA|CUTTERSELF FEEDING EA|', 'HOSE CLAMPSSMIN.DIA.1/2 EA|PUSH ON HOSE BARB3/8 IN', 'FIBREWOUND WATER TANKPRE EA', 'SPILL KIT6 GAL.UNIVERSA EA']</t>
+  </si>
+  <si>
+    <t>['PROSUPPORT: 4-HOUR 7X24 ON PCE|PROSUPPORT PLUS: 7X', 'DELL 21.5 MONITOR P2214H PCE|DELL STEREO USB SOUND', 'OPTIPLEX 9020 MINI TOWER PCE']</t>
+  </si>
+  <si>
+    <t>['SHIPPING-FUEL SURCHARGE EA|TISSUE CULT PLATE 6W CS', 'SHIPPING-FUEL SURCHARGE EA|TIS CULT DISH 100X20 CS', 'SHIPPING-FUEL SURCHARGE EA|SYRINGE SLIP TIP 1ML PK', 'LOWENSTEIN-JENSEN M PK|MRVP BROTH-2 ML 20/P PK', 'SILICA GEL GR 12 1KG EA']</t>
+  </si>
+  <si>
+    <t>['EOS 6D DGTL CAM W/24-105MM EA|EOS 6D DIGITAL CAM W']</t>
+  </si>
+  <si>
+    <t>['PYREX VISTA BEAKER 600 ML PCE', '1080P HDMI MALE INPUT TO V PCE', 'MEDIALINK WIRELESS-N USB A PCE|THERMALTAKE MAX-156', 'AERB    NEWEST REMOVABLE W PCE|BEAR MOTION FOR IPA', 'DOXIE GO - RECHARGEABLE MO PCE|SANDISK CRUZER BLAD', 'ANKER    USB 3.0 9-PORT HU PCE|ANKER    WIRELESS M', 'SAMSUNG GALAXY TAB 3 (7-IN PCE', 'YELLOW JACKET 2816 12/3 SJ PCE', 'APPLE LIGHTNING TO SD CARD PCE', 'DURACELL D389/390PK WATCH PCE|HUNTS- SNACK PACK PU', 'SENSAPHONE 400 MONITORING PCE', 'US PLUG AC 250V 5W-150W E2 PCE', 'ACER T272HL BMIDZ 27-INCH PCE', 'DUAL LCD MONITOR DESK MOUN PCE']</t>
+  </si>
+  <si>
+    <t>['MODULAR STACKING RACK16X EA', 'ELEMENTINTAKE FILTER EA', 'GENERAL PURCHASE', 'RELAYTIME DELAY EA|SOCKETRELAY11 PINS EA|RELAYPRE', 'DIGITAL HYGROMETERREMOTE EA', 'SWING CHECK VALVEBRONZE EA', 'DISPOSERWASTE EA', 'GAUGE 1/4 PIGTAIL S EA', 'EXIT SIGN W/ BTRY BACK UP EA|RATCHET FACESHIELD AS', 'TRANSFORMERIN 240/480VO EA']</t>
+  </si>
+  <si>
+    <t>['GENERAL PURCHASE', 'PRESSURE GAUGE0 TO 80 PS EA|VIBRATION ABSORBERL 9', 'V-BELT PULLEYSPLITTPR11 EA|SPLIT TAPER BUSHINGSERI', 'V-BELT PULLEY1-3/8VRPIT EA', 'MAGNETIC MOTOR STARTERNE EA|THERMAL UNITB10.2 EA', 'B4-24-S-X06 0-100PSI EA', 'FILTER/REGULATOR EA', 'MOTOR1/3 HP1725 RPM115 EA', 'WIRE DUCT COVERGRAYWIDT EA|WIRE CABLE CLIPPK25 EA']</t>
+  </si>
+  <si>
+    <t>['ROOM CHARGES']</t>
+  </si>
+  <si>
+    <t>['MOTORPSC1/2 HP1075208 EA|RUN CAPACITOR10 MFD370 EA', 'BUTTERFLY VALVELUG6 IN EA|BUTTERFLY VALVELUG4 IN E', 'GENERAL PURCHASE', 'REPALCEMENT TUBE BUNDLE F EA|HEAD GASKET SU GASKET', 'SHAFT COUPLER INSERT EA', 'FIXTURE WRAPAROUND EA']</t>
+  </si>
+  <si>
+    <t>['ECO LIGHT G0724LD-BKSS-I 1 PCE', 'HOOVER SPRINT QUICKVAC BAG PCE', 'U.S. ARMY IMPROVISED MUNIT PCE', 'WATCHING WITH THE SIMPSONS PCE|NTU SPORTS TEXTBOOK', 'GREAT NORTHERN POPCORN BLA PCE', 'TAI CHI MUSIC 2 PCE|TAI CHI MELODY PCE|ADAGIO: MUS', 'WD RED 3 TB NAS HARD DRIVE PCE', 'SYNOLOGY DISKSTATION 12-BA PCE', 'SAFCO WRITE WAY DIRECTIONA PCE', 'TEKTON 4888 3/8-INCH AND 1 PCE|TEKTON 4963 IMPACT', 'FREUD 12-130 1/2-INCH DIAM PCE', 'PRESERVING THEIR HERITAGE PCE|NATIVE AMERICAN INDU', 'ROSSETO SK001 5-PIECE SKYC PCE']</t>
+  </si>
+  <si>
+    <t>['CTRLVLVASSYHDLSTORCHESFGSI EA', 'CYLCARBONDIOXIDEIND200CGA3 MO', 'CYLNITROGENINDLIQ160LT22PS MO', 'CYLCARBONDIOXIDEIND200CGA3 MO|CYLCARBONDIOXIDEIND3', 'CYLCARBONDIOXIDEIND200CGA3 MO|CYLNITROGENINDLIQ160', 'CYLCARBONDIOXIDEIND300CGA3 MO', 'GENERAL PURCHASE', 'HS14X100TWINWLDGGRDRBB EA|E6011STCKELECT18MUREX601', 'ACETYLENEINDMCCGA200 CL', 'CGA580NITROGEN EA']</t>
+  </si>
+  <si>
+    <t>['001802 KEY CAB PRO 60 EA', '8205 LNL 26D RH EA', '1 PORT MOD JACK 110 8W8P U EA', 'BP 8205 26D RH EA']</t>
+  </si>
+  <si>
+    <t>['CRC MARINE HYPOID 90 OUTBO PCE', 'IOGEAR 8-PORT DVI KVMP SWI PCE', 'GATES 6855 POWERATED BELT PCE', 'FREUD 12-142 5/8-INCH DIAM PCE|FREUD 12-158 3/4-IN', 'SUMMER INFANT WATERPROOF M PCE', 'CORSAIR FLASH SURVIVOR STE PCE', 'STANLEY 60-100 10-PIECE ST PCE|SUREBONDER DT-25 AL', 'VIZIO M801D-A3R 80-INCH 10 PCE', 'GEORGIA-PACIFIC SIGNATURE PCE', 'LEAVING COLLEGE: RETHINKIN PCE|COMPLETING COLLEGE:', 'SIMPLEHUMAN CW1407 60 LITE PCE']</t>
+  </si>
+  <si>
+    <t>['SHIPPING-FUEL SURCHARGE EA|PLASTIC WRAP 11.5INX EA', 'SHIPPING-FUEL SURCHARGE EA|BATTERY BUTTON CELL EA|', 'SHIPPING-FUEL SURCHARGE EA|FUNNEL FILTERING 50M PK', '10-425 VL 12X32 CLR PK']</t>
+  </si>
+  <si>
+    <t>['ROOM CHARGES', 'GENERAL PURCHASE']</t>
+  </si>
+  <si>
+    <t>['TIPS EPTIPS RACK 0.1-5ML C CS|VWR TAPE PNK 1/2X500', 'BDH ALCOHOL 95% POLY 4L EA', 'EYEWEAR UVEX IGNITE BLACK/ EA', 'VWR BLOCK HEATER ANALOG 2 EA|BDH HYDROGEN PEROXIDE', 'VWR BLOCK 50ML CONCL CENT EA|VWR REGULATOR HP 3GAS', 'VWR BLOCK 15ML CONCL CENT EA', 'NITRIC ACID INSTRA 2500ML CS|VWR TUBE 15ML METAL F', 'VWR CENTRIFUGE CLINICL 50 EA', 'POWERPETTE PLUS PIPET CONT EA', 'TIP 1000UL CLEAR PK1000 CS']</t>
+  </si>
+  <si>
+    <t>['VWR TIP TUBEGARD 10UL PK13 CS', 'MICRO-90 CLEANING SOLT 1L CS|SYRINGE W/LUER-LOK 10', 'GLOVE XMTN LR NTRL LAVENDE CS', 'VWR CENTRIFUGE TUBE .5ML P CS|VWR TUBING PVC 3/8X1', 'VWR STIR BAR PTFE 5/16X1/2 EA|VWR PESTLE 114MM EA|', 'SYRINGE 1705LT GT 50UL EA|SYRINGE LUER TIP 100UL E', 'SYRINGE 1705RN 50UL EA|SYRINGE 1725RNCP GT 250UL E', 'SYRINGE 1710RN 100UL EA', 'CIPROFLOXACIN HYDROCHLORID EA', 'VWR TIP BLUE 1000UL UF PK1 PK|TIP NEPTUNE 200UL Y', 'VWR TIP LOW BINDING STR PK PK|RACK PREPSAFE MCT MI', 'PK144 SEPTUM 14/20JTS RED PK|PK144 SEPTUM 19/38JTS', 'BENZENE-D6 25G EA', 'COL SPE C8 500MG 6ML PK30 PK', 'WASH BOTTLE SOLV 500ML PK2 PK', 'FREE CHLORINE TEST KIT EA', 'VWR JAR WM AMB PC 500ML CS CS', 'ETHYL ACETATE 4L CS']</t>
+  </si>
+  <si>
+    <t>['MUELLR HINTN W/1% GC PK', 'SHIPPING-FUEL SURCHARGE EA|FUNNEL 5X4IN 122MM 6 PK', 'SHIPPING-FUEL SURCHARGE EA|CHARACTERIZED FBS 50 EA']</t>
+  </si>
+  <si>
+    <t>["THE ABC'S OF SELLING YOUR PCE", 'AS IF THE HEART MATTERED: PCE', 'CRAMER 1001-92 KIK STEP RO PCE', 'BLAST KING IR2X10B-500 10 PCE', 'PROTEINS AT LIQUID INTERFA PCE|VACCINE ADJUVANTS:', 'ANALYTICAL TECHNIQUES FOR PCE|HISTORY OF VACCINE D', 'APOPTOSIS: THE MOLECULAR B PCE|PRINCIPLES OF PROTE', 'SEXUALLY TRANSMITTED DISEA PCE|PRACTICAL PROTEIN C', 'REVIEW OF MEDICAL MICROBIO PCE|CELL SURVIVAL AND C', "MARTIN'S PHYSICAL PHARMACY PCE|VACCINE DESIGN: INN", 'HP LASERJET  BLACK TONER I PCE', 'FROGG TOGGS CASCADES 2-PLY PCE|FROGG TOGGS CASCADE', 'PANTER COMPANY PCM-1 CLEAR PCE', 'ASAHI AMERICA LABCOCK PVC PCE', 'APC BR1500G BACK-UPS PRO 1 PCE', 'REPLACEMENT BATTERY CARTRI PCE', 'MASTER LOCK 4688D TSA ACCE PCE|C&amp;E CNE74528 15-FEE', 'TASCAM DR-05EB PORTABLE DI PCE', 'PUBLICATION MANUAL OF THE PCE', 'OH YEAH?!: PUTTING ARGUME PCE|GET IT DONE!: WRITIN', "SO WHAT'S THE STORY?: TEA PCE", 'LARE REVIEW SECTION E VIGN PCE']</t>
+  </si>
+  <si>
+    <t>['074949535 PCS', '131556229 PCS']</t>
+  </si>
+  <si>
+    <t>['HANDBOOK OF THE PSYCHOLOGY PCE', 'RAND MCNALLY U.S.A WALL MA PCE|RAND MCNALLY WORLD', 'THE AVANT-GARDE AND THE PO PCE|REIMAGINING THE CAR', 'CLASSIC AND CONTEMPORARY R PCE', 'DESK REFERENCE TO THE DIAG PCE', 'QUARTET WHITEBOARD 24 X 1 PCE|EXPO 6-PIECE LOW ODO', 'SAMSUNG UN40HU6950 40-INCH PCE', 'SAMSUNG ELECTRONICS 840 EV PCE', 'SHAPESVILLE PCE', "CHEROKEE WOMEN'S SCRUBS 30 PCE", 'LOW-ODOR DRY ERASE MARKERS PCE|HOUSE OF DOOLITTLE', 'CKITZE BG-520 HDMI 1X2 3D PCE', 'PENN PRESSURELESS 48-BALL PCE', 'KENDA KOURIER K-SHIELD BIC PCE', 'FITBIT FLEX WIRELESS ACTIV PCE', 'APPROXIMATE DYNAMIC PROGRA PCE|FUNDAMENTALS OF POW', 'ACER G236HL BBD 23-INCH SC PCE', 'ILLUSTRATED SPECIAL RELATI PCE', 'WHITE SILICONETUBING 1/2 PCE', 'LOGITECH DESKTOP MK120 MOU PCE', 'ASUS VS278Q-P ULTRAFAST 1M PCE', 'BREAD BREAD BREAD (AROUN PCE']</t>
+  </si>
+  <si>
+    <t>['273350 EA', '2448600 EACH']</t>
+  </si>
+  <si>
+    <t>['CULT PLATE MOUSE 6-W CS|WIRE BAG HOLDER FOR EA', 'CHARACTERIZED FBS 50 EA', 'SUPERSIGNAL WEST PIC EA', 'SHIPPING-FUEL SURCHARGE EA|BACDOWN DETRGNT DISI EA', 'MUELLR HINTN W/1% GC PK', 'BLOOD AGAR SLANTS 10 PK', 'TB STAIN SET ZN EA', 'SHIPPING-FUEL SURCHARGE EA|AGAROSE LOW EEO 100G EA', 'SHIPPING-FUEL SURCHARGE EA|GOTAQ GREEN MASTER M EA', 'SHIPPING-FUEL SURCHARGE EA|GRAD TRNS PPT NS 5.8 PK', 'SHIPPING-FUEL SURCHARGE EA|HEMOCCULT 2HOLE S-SL PK', 'SHIPPING-FUEL SURCHARGE EA|100X 100MM SQUARE CS|BR', 'SHIPPING-FUEL SURCHARGE EA|PT 0.2UM 200X200MM 1 PK']</t>
+  </si>
+  <si>
+    <t>['THE BLACK BODY IN ECSTASY: PCE', 'TEACHING AT ITS BEST: A RE PCE', 'PANAMAX D10-PFP RACKMOUNT PCE|STARTECH.COM UNIVERS', 'TRIPP LITE STANDARD POWER PCE', 'HANDBOOK OF FEMINIST RESEA PCE', 'GENERAL TOOLS &amp; INSTRUMENT PCE', 'WHAT IF THERE WERE NO BEES PCE', 'THE BOUNDLESS PCE', 'SANDISK EXTREME 32GB SDHC PCE|CANON EOS 6D 20.2 MP', 'CANON EF-S 60MM F/2.8 MACR PCE', 'CANON EF 100MM F/2.8 MACRO PCE']</t>
+  </si>
+  <si>
+    <t>['ALUMINUM FOIL 12IN X EA', 'SHIPPING-FUEL SURCHARGE EA|FILTER SYRINGE .45UM CS', 'TRYPTICASE SOY AGAR PK', 'SHIPPING-FUEL SURCHARGE EA|STOPPER RUBBER 7/16 PK|', 'SHIPPING-FUEL SURCHARGE EA|FLWMTR150MM AL CL ST EA', 'LACTOBACILLUS MRS BR EA', 'SHIPPING-FUEL SURCHARGE EA|TOWEL SCOTT MULTI-FO CS', 'TIPS YELLOW PP 1000/ CS', 'SHIPPING-FUEL SURCHARGE EA|FB INOC NEEDLE NICHR EA', 'SHIPPING-FUEL SURCHARGE EA|GN BROTH 500G EA', 'SHIPPING-FUEL SURCHARGE EA|IPTG DIOXANE-FREE 1G EA', '5ML GRADIENT FORMER EA|TRANSPORTATION CHARGE EA', 'SHIPPING-FUEL SURCHARGE EA|1XPHOS BUFF SALINE ( EA']</t>
+  </si>
+  <si>
+    <t>['BENTONITE POWDER 500GM EA', 'PHENLPYRUVIC AC SOD SLT MO EA', 'DIALYS TBNG 16MM DIA 25MM EA', 'PLATES BRAIN-HEART INFUSIO PK|PLATES EMB AGAR PKG/', 'VWR SLIDE SPRFROST BRWHT G GR', 'VWR SLIDE PM SUPERFROST UN GR', 'VWR SLIDE YELLOW 25X75MM 1 GR', 'ASCARIS LUMBRICOIDES P/100 PK', 'AMMONIUM ACETATE REAGENT 5 CS', 'VWR CRUCIBLE H/F 15ML PK6 CS|COTTON ABSRBT NONSTRL', 'PETRI DISH 35MMX10MM CS500 CS', 'AMMONIUM NITRATE ACS REAG5 CS', 'VWR CRUCIBLE COVER 38MM PK PK|SODIUM BICARBONATE R', 'POTASSIUM BROMIDE ACS REA5 CS|FILTER PAPER #1 12.5', 'SODIUM HYDROXIDE 0.5 N / M EA', 'VWR LENS PAPER 6X8 PK12BK PK', 'YEAST EXTRACT GRANULATED 5 EA', 'HYDROXYETHYL CELLULOSE HI- EA', 'VWR PETRI DISH 100X15MM CS CS', 'VWR COVER GLASS SQ #2 22MM CS', 'STANDARD KNIFE SET 20-PCS EA', 'BOTTLE 250ML CS35 CS', 'FORMIC ACID 0.1% / WATER 1 EA|FORMIC ACID 0.1% /AC', 'VWR GLOVE NITRILE PF L PK1 PK|VWR GLOVE NITRILE PF', 'ALPHATRAK 2 TEST STRIPS 50 PK', 'ETHNOL ANHY HPLC 90% 5% ME EA', 'VWR GLOVE NITRILE PF S PK1 CS', 'VWR PIPETTE SERO 25ML PR C CS|FLASK TISSUE CULTUR', 'PLATES 6-WELL U.B. CS50 CS', 'FLASK CANTED NECK 75CM2 CS CS|TOWELS SINGLE-FOLD H', 'FILTER BTL TOP 150ML 33MM CS', 'DISH 100X20MM TC 20PK 200C CS|TUBE CENTRIFG POLYP', 'PLATE 96WL ST W/LID CS60 CS', 'CONTRAD 70 BIOGRDBLE 5L CS', 'CAP PHN BK RUBLND 24/400 C CS', 'ETHYL ALCO 200P ACS 4L EA EA|PIPET ACCU-JET PRO 12', '34-DIAMINOTOLUENE 97% 10 EA', 'FURAN 98% 100ML EA|NORBORNENE 99% 100G EA', 'ORBITAL SHAKER LS FLAT PF CS', 'BDH ARISTAR ACETIC ACID AC EA|BDH METHANOL ACS GRA', 'PUMPDRY VACUUM STD DUTY EA', 'CART UTILITY LAB BLACK 2-S EA', 'PAPER THERMAL HIGH GLOSS C CS', 'VWR TIP ZAPSLIK 20UL S PK9 PK|VWR TIP ZAPSLIK 10UL', 'VWR SHARPS CONTAINER YLW C CS', 'DETERGENT AQUET PHOS-FRE 1 EA', 'TUBES PCR 0.5ML CS500 CS', 'BAG HEFTY RCYCL 13GAL WE B BX', '4-NITROPHENOL 97% 250G EA']</t>
+  </si>
+  <si>
+    <t>['282656 EA', '2747873 5DS|2747873 10DS|2747873 50DS']</t>
+  </si>
+  <si>
+    <t>['BIC PENCIL - COLOR EACH|SHARPENING PER PIECE EACH|', 'TWO-TONE TOTE BAG - SCREEN EACH|SET-UP CHARGE(PER', 'CAR SUN SHADE EACH|SET-UP CHARGE EACH|3RD PARTY BI']</t>
+  </si>
+  <si>
+    <t>['VWR CONTAINER 10%NBF 90ML CS', 'GENERAL PURCHASE', 'DIETHYLPYROCARBONATE (DEPC EA', '2PLY 85 SHEET KITCHEN ROLL CS', 'BROMOCYCLOHEXANE 95+% 500G EA', 'CARBENICILLIN DISODIUM 5GM EA|SODIUM AZIDE UN1687']</t>
+  </si>
+  <si>
+    <t>['SILVER/DEMING DRILL1 IN EA|JOBBER BIT1/2 IN.COBALT', 'WATER HOSERNFRCD RUBR5/ EA|FILAMENT TAPE48MM X 55M', 'MANIFOLD GAUGE SET2 VALV EA', 'GENERAL PURCHASE']</t>
+  </si>
+  <si>
+    <t>['KOBALT PROFESSIONAL LCD HE EA', '48-INMAGNETIC I BEAM LEVEL EA|KOBALT 18-IN WRECKIN', '4INX10FT PVC DWV CELLCORE PCS|NYW 36-IN X 84-IN CH', '1-1/2-IN SCH40 COUP 429015 EA|1-1/2-IN 45 DEG ELBO', '8-IN BLK CABLE TIES 100-CT BAG|3/8X10-1/2 TRNBKL Z', 'GENERAL PURCHASE', 'DW 37PC SCREWDRIVING SET W EA|IRWIN 10-IN CURVE JA', '3/8-IN GALVANIZED TEE EA|3/8-IN X 2-IN GALV PIPE N', '1CT SS SINGLE ROLL PAPER T EA|CLEAR K&amp;B SILICONE I', 'RENO-U REDUCR 3/8IN SAT AN EA', 'CEIL2FT STB CRS TEE WHITE EA', 'SOS RELIABILT-ATRIUM VINYL EA|LAB EXT BASIC WINDOW', 'FR 14.1 CU FT WHT UFRZ LFF EA', 'SOS HTP ELEC FS RNG RA724K EA|SOS BRN RNG HOOD 402', 'WELD FLAT 1/4X1-1/2X3 FT EA|1X4X4 TOP CHOICE #2 WH', '2CT HOME DEFENSE MAX MOUSE EA|10PCS FLAT BUNGEE AS', 'UTLT 50-FT 10/3 YLW CRD T- EA|UTLT 50-FT 12/3 YLW', '128 OZ CLORALEN BLEACH EA|2X75CT CLOROX  DISINFECT', '2.5 QT RED PLASTIC PAIL EA', 'FROST KING ROLL DRP CLOTH EA|PROJECT SOURCE PAINT', 'OLG 4-OUT CIRCUIT BREAKER EA|OUTDOOR 2-OUTLET DIAL', '12-OZ ORANGE GLOSS SP R-O EA|12-OZ GLOSS BLACK STO', 'CONVERTIBLE HAND TRUCK (-4 EA']</t>
+  </si>
+  <si>
+    <t>['VWR FREEZER MANUAL DEFROST EA', 'GLYCINE BUFFER 5KG F/CELL EA|VWR TIP BLU 1000UL RK', 'RACK PIPETTE 5-STATION SST EA', 'VWR PIPETTE EHP PROMO PACK EA|VWR PETRI DISH 150X1', 'VWR BAG BIO RD HD4M38X48 C CS', '5-HYDROXYMETHYLFURFURAL 5G EA', 'VWR PLATE PCR 96 FOR ABI P PK', 'PIG HAZMAT HEAVYWT PK100 PK', 'VWR TAPE RAINBOW 1/2X500IN CS', 'GLYCEROL STERILE BIOTECH G EA', 'DNA LADDER BENCHTOP 100BP EA', 'VWR GLOVE SFT NITR PF S PK PK', 'CLASSROOM DISS. SET /20 EA', 'AGAR POWDER 2500GM EA', 'AGAROSE GOLD SEAKEM 30-50K EA', 'BACTI-CINERATOR IV 120V EA EA', 'STEPUP SLIDE WARMER 115 VO EA', 'PIPETTE 10ML CS200 CS|PIPETTE 2ML CS500 CS', 'PLATE FLAT BOTTOM 96 LID C CS', 'AMPICILLIN CART 10MCG EA|GENTAMICIN CART 10MCG EA|', '2-BROMOBUTANE 98% 1KG EA', 'CYCLOPENTYL BROMIDE 99% 1 EA', 'SPIGOT REPLACEMENT PP 1-1/ EA', 'RNASE KILLER 250ML EA', 'FLASK TISSUE CULT 600ML CS CS', 'FLASK CANTED NECK 70ML CS1 CS|FLASK TISSUE CULTUR', 'VWR BOX FOR VIAL STORAGE 2 CS', 'DME/HIGH W/SOD PYR 500ML EA|RPMI 1640 WITH L-GLUT', 'TIP QUICKRACK 1000XT PK768 CS']</t>
+  </si>
+  <si>
+    <t>['L ACRYLAMIDE/BIS-ACRYLAMI EA', 'MAC CONKEY-SORBITOL AGAR EA', 'BOVINE SERUM ALBUMIN LYO EA', 'SODIUM ACETATE ANHYDROUS EA|AMMONIUM DIHYDROGENPHO', 'DIMETHYL SULFOXIDE HYBRI- EA', 'INSULIN SOLUTION FROM BOV EA', 'MINIMUM ESSENTIAL MEDIUM EA|INSULIN FROM FROM BOVI', 'AST ACTIVITY ASSAY KIT EA']</t>
+  </si>
+  <si>
+    <t>['PROGESTERONE ANTISERUM DE EA', 'DISPASE I EA', 'PARAFORMALDEHYDE REAGENT EA', '15-BIS(4-ALLYLDIMETHYLAM EA|14-BIS(5-PHENYL-2-OXAZ', 'DIETHYLAMINE EA', '2-METHYLPROPANE 99% EA', 'SIGMA-ALDRICH(TM) VACUUM EA|FILTER MEMBRANES ISOPO', "22'-AZINO-BIS(3-ETHYLBEN EA", 'ZINC NITRATE HEXAHYDRATE EA|HEXAMETHYLENETETRAMINE', 'P-TOLUENESULFONIC ACID MO EA|PENTANE REAGENT GRADE', 'L(+)ARABINOSE EA|DEOXYRIBONUCLEASE I CRUDE EA']</t>
+  </si>
+  <si>
+    <t>['POWERDOCK 5 -MULTI-CHARGER PCE', 'BY DANIEL J. LIMMER EMT-P PCE', "A PRACTITIONER'S GUIDE TO PCE", 'BUSINESS ANALYTICS: A PRAC PCE', 'SHARPIE FINE POINT PERMANE PCE|SHARPIE FINE POINT', 'PARAMED PARAFFIN WAX REFIL PCE|DYNAREX NITRILE EXA', 'GENERAL PURCHASE', 'ALPHA FRY AT-31604 60-40 R PCE|TYGON S-50-HL PVC M', 'EVGA GEFORCE GT 640 2048MB PCE|SENTEY    BXP600-PS', 'KYOCERA-MITA TK-562C CYAN PCE', 'U.S. ARMY IMPROVISED MUNIT PCE', 'STACK-ON DS-39 39 DRAWER S PCE', 'SE - STORAGE CONTAINER SET PCE', 'ZAGG COVER CASE WITH BACKL PCE', 'ARCTIC SILVER 5 THERMAL CO PCE|MEDIABRIDGE CAT5E E', 'HEWLETT PACKARD M451DW LAS PCE', 'FUJITSU SCANSNAP S1300I MO PCE', 'COMPREHENSIVE ST SERIES US PCE', 'NIKON COOLPIX AW120 SHOCK PCE']</t>
+  </si>
+  <si>
+    <t>['IGNITORHOT SURFACE EA', 'GENERAL PURCHASE', '3M(TM) 6000 SERIES HALF M EA|FILTERBAYONETPK 2 EA|', '|CARDED NUMBERS AND LETTER EA|CARDED NUMBERS AND', 'ALLIGATOR CLIPNON INSULA EA', 'MOTOR RUN CAPACITOR4 MFD EA', 'U BOLTTHREAD SIZE 5/8FO EA|U BOLTTHREAD SIZE 5/8FO', 'FAN MOTOR 208/240/277 VO EA|SNAP-OFF UTILITY KNIFE', 'STORAGE CABINET20 GA.78 EA']</t>
+  </si>
+  <si>
+    <t>['SANDISK ULTRA 32GB UHI-I/C PCE', 'LIVESCRIBE 8.5 X 11 SINGLE PCE', 'BUFFALO HEADS: MEDIA STUDY PCE', 'COSMOS: CARL SAGAN PCE|HORTON HEARS A WHO (SINGLE', 'ALLOY STEEL SOCKET CAP SCR PCE', 'FORNEY 20992 BOTTOM TAP IN PCE', 'DIGITAL EVIDENCE AND COMPU PCE', 'CRESSI ISLA BOOTS WITH 7MM PCE', 'GSC UB2042 UNDER-BED BOX W PCE', 'LEAPFROG SCRIBBLE AND WRIT PCE', 'ACURITE 00613A1 INDOOR HUM PCE|HONEYWELL UNIVERSAL', 'SYNOLOGY DISKSTATION 12-BA PCE']</t>
   </si>
   <si>
     <t>EEI</t>
@@ -14601,13 +14613,13 @@
         <v>346</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C2">
         <v>6128.6</v>
       </c>
       <c r="D2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E2" s="2">
         <v>41642</v>
@@ -14627,13 +14639,13 @@
         <v>347</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C3">
         <v>5524.16</v>
       </c>
       <c r="D3" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="E3" s="2">
         <v>41646</v>
@@ -14642,7 +14654,7 @@
         <v>41647</v>
       </c>
       <c r="G3" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -14653,13 +14665,13 @@
         <v>348</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C4">
         <v>7459</v>
       </c>
       <c r="D4" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E4" s="2">
         <v>41646</v>
@@ -14679,13 +14691,13 @@
         <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C5">
         <v>6935</v>
       </c>
       <c r="D5" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E5" s="2">
         <v>41649</v>
@@ -14694,7 +14706,7 @@
         <v>41652</v>
       </c>
       <c r="G5" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -14705,13 +14717,13 @@
         <v>350</v>
       </c>
       <c r="B6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C6">
         <v>5088.41</v>
       </c>
       <c r="D6" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E6" s="2">
         <v>41653</v>
@@ -14731,13 +14743,13 @@
         <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C7">
         <v>5053.400000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E7" s="2">
         <v>41655</v>
@@ -14746,7 +14758,7 @@
         <v>41656</v>
       </c>
       <c r="G7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -14757,7 +14769,7 @@
         <v>352</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C8">
         <v>7115.71</v>
@@ -14783,13 +14795,13 @@
         <v>353</v>
       </c>
       <c r="B9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C9">
         <v>7803.620000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E9" s="2">
         <v>41662</v>
@@ -14798,7 +14810,7 @@
         <v>41662</v>
       </c>
       <c r="G9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -14809,13 +14821,13 @@
         <v>354</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C10">
         <v>6689.490000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E10" s="2">
         <v>41668</v>
@@ -14824,7 +14836,7 @@
         <v>41669</v>
       </c>
       <c r="G10" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -14835,13 +14847,13 @@
         <v>355</v>
       </c>
       <c r="B11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C11">
         <v>5791.19</v>
       </c>
       <c r="D11" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E11" s="2">
         <v>41670</v>
@@ -14861,7 +14873,7 @@
         <v>356</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C12">
         <v>7630</v>
@@ -14887,13 +14899,13 @@
         <v>357</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C13">
         <v>5003.76</v>
       </c>
       <c r="D13" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E13" s="2">
         <v>41681</v>
@@ -14913,13 +14925,13 @@
         <v>358</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C14">
         <v>5818.85</v>
       </c>
       <c r="D14" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="E14" s="2">
         <v>41681</v>
@@ -14928,7 +14940,7 @@
         <v>41682</v>
       </c>
       <c r="G14" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -14939,13 +14951,13 @@
         <v>359</v>
       </c>
       <c r="B15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C15">
         <v>5088.14</v>
       </c>
       <c r="D15" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E15" s="2">
         <v>41683</v>
@@ -14965,13 +14977,13 @@
         <v>346</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C16">
         <v>6169</v>
       </c>
       <c r="D16" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E16" s="2">
         <v>41684</v>
@@ -14991,13 +15003,13 @@
         <v>360</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C17">
         <v>5026</v>
       </c>
       <c r="D17" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E17" s="2">
         <v>41689</v>
@@ -15017,13 +15029,13 @@
         <v>361</v>
       </c>
       <c r="B18" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C18">
         <v>5465.28</v>
       </c>
       <c r="D18" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E18" s="2">
         <v>41689</v>
@@ -15043,13 +15055,13 @@
         <v>362</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C19">
         <v>5557.35</v>
       </c>
       <c r="D19" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="E19" s="2">
         <v>41691</v>
@@ -15058,7 +15070,7 @@
         <v>41694</v>
       </c>
       <c r="G19" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -15069,13 +15081,13 @@
         <v>363</v>
       </c>
       <c r="B20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C20">
         <v>5064.969999999999</v>
       </c>
       <c r="D20" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E20" s="2">
         <v>41694</v>
@@ -15084,7 +15096,7 @@
         <v>41695</v>
       </c>
       <c r="G20" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H20">
         <v>6</v>
@@ -15095,13 +15107,13 @@
         <v>364</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C21">
         <v>5229.54</v>
       </c>
       <c r="D21" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="E21" s="2">
         <v>41696</v>
@@ -15110,7 +15122,7 @@
         <v>41697</v>
       </c>
       <c r="G21" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -15121,13 +15133,13 @@
         <v>365</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>467</v>
       </c>
       <c r="C22">
         <v>6495.32</v>
       </c>
       <c r="D22" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E22" s="2">
         <v>41697</v>
@@ -15136,7 +15148,7 @@
         <v>41698</v>
       </c>
       <c r="G22" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H22">
         <v>7</v>
@@ -15147,13 +15159,13 @@
         <v>366</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>468</v>
       </c>
       <c r="C23">
         <v>5393.860000000001</v>
       </c>
       <c r="D23" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E23" s="2">
         <v>41698</v>
@@ -15173,13 +15185,13 @@
         <v>367</v>
       </c>
       <c r="B24" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C24">
         <v>5142.8</v>
       </c>
       <c r="D24" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E24" s="2">
         <v>41703</v>
@@ -15188,7 +15200,7 @@
         <v>41704</v>
       </c>
       <c r="G24" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -15199,7 +15211,7 @@
         <v>368</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C25">
         <v>5403.34</v>
@@ -15225,7 +15237,7 @@
         <v>369</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C26">
         <v>5035.76</v>
@@ -15251,13 +15263,13 @@
         <v>370</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C27">
         <v>5043.68</v>
       </c>
       <c r="D27" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E27" s="2">
         <v>41708</v>
@@ -15277,7 +15289,7 @@
         <v>371</v>
       </c>
       <c r="B28" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C28">
         <v>5446.96</v>
@@ -15292,7 +15304,7 @@
         <v>41709</v>
       </c>
       <c r="G28" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H28">
         <v>11</v>
@@ -15303,13 +15315,13 @@
         <v>372</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C29">
         <v>5393.54</v>
       </c>
       <c r="D29" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E29" s="2">
         <v>41709</v>
@@ -15329,7 +15341,7 @@
         <v>373</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C30">
         <v>6232</v>
@@ -15355,13 +15367,13 @@
         <v>374</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C31">
         <v>5702.97</v>
       </c>
       <c r="D31" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E31" s="2">
         <v>41712</v>
@@ -15370,7 +15382,7 @@
         <v>41715</v>
       </c>
       <c r="G31" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -15381,13 +15393,13 @@
         <v>375</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C32">
         <v>5502.39</v>
       </c>
       <c r="D32" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E32" s="2">
         <v>41717</v>
@@ -15407,13 +15419,13 @@
         <v>376</v>
       </c>
       <c r="B33" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C33">
         <v>5008.55</v>
       </c>
       <c r="D33" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="E33" s="2">
         <v>41723</v>
@@ -15433,7 +15445,7 @@
         <v>377</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C34">
         <v>6731.67</v>
@@ -15459,13 +15471,13 @@
         <v>378</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C35">
         <v>6040.82</v>
       </c>
       <c r="D35" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E35" s="2">
         <v>41729</v>
@@ -15485,7 +15497,7 @@
         <v>379</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C36">
         <v>7794</v>
@@ -15511,7 +15523,7 @@
         <v>373</v>
       </c>
       <c r="B37" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C37">
         <v>6471.62</v>
@@ -15537,13 +15549,13 @@
         <v>380</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C38">
         <v>6475</v>
       </c>
       <c r="D38" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E38" s="2">
         <v>41737</v>
@@ -15563,7 +15575,7 @@
         <v>381</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C39">
         <v>5543.280000000001</v>
@@ -15589,7 +15601,7 @@
         <v>382</v>
       </c>
       <c r="B40" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C40">
         <v>6155.9</v>
@@ -15604,7 +15616,7 @@
         <v>41746</v>
       </c>
       <c r="G40" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H40">
         <v>10</v>
@@ -15615,13 +15627,13 @@
         <v>383</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C41">
         <v>5118.24</v>
       </c>
       <c r="D41" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E41" s="2">
         <v>41753</v>
@@ -15630,7 +15642,7 @@
         <v>41757</v>
       </c>
       <c r="G41" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -15641,7 +15653,7 @@
         <v>369</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C42">
         <v>8203.559999999999</v>
@@ -15667,13 +15679,13 @@
         <v>384</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C43">
         <v>7574.5</v>
       </c>
       <c r="D43" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="E43" s="2">
         <v>41754</v>
@@ -15693,13 +15705,13 @@
         <v>385</v>
       </c>
       <c r="B44" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C44">
         <v>5748.919999999999</v>
       </c>
       <c r="D44" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E44" s="2">
         <v>41762</v>
@@ -15719,13 +15731,13 @@
         <v>386</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>475</v>
       </c>
       <c r="C45">
         <v>5746.68</v>
       </c>
       <c r="D45" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E45" s="2">
         <v>41768</v>
@@ -15745,7 +15757,7 @@
         <v>387</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C46">
         <v>5008.25</v>
@@ -15771,7 +15783,7 @@
         <v>364</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C47">
         <v>7626</v>
@@ -15797,13 +15809,13 @@
         <v>388</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C48">
         <v>8029.8</v>
       </c>
       <c r="D48" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E48" s="2">
         <v>41774</v>
@@ -15812,7 +15824,7 @@
         <v>41775</v>
       </c>
       <c r="G48" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -15823,13 +15835,13 @@
         <v>389</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C49">
         <v>9938</v>
       </c>
       <c r="D49" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E49" s="2">
         <v>41787</v>
@@ -15838,7 +15850,7 @@
         <v>41788</v>
       </c>
       <c r="G49" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -15849,13 +15861,13 @@
         <v>390</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C50">
         <v>6242.17</v>
       </c>
       <c r="D50" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E50" s="2">
         <v>41794</v>
@@ -15864,7 +15876,7 @@
         <v>41796</v>
       </c>
       <c r="G50" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H50">
         <v>5</v>
@@ -15875,13 +15887,13 @@
         <v>391</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C51">
         <v>6214.440000000001</v>
       </c>
       <c r="D51" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E51" s="2">
         <v>41795</v>
@@ -15890,7 +15902,7 @@
         <v>41799</v>
       </c>
       <c r="G51" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -15901,7 +15913,7 @@
         <v>392</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C52">
         <v>5162.22</v>
@@ -15927,7 +15939,7 @@
         <v>391</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C53">
         <v>6094</v>
@@ -15953,13 +15965,13 @@
         <v>393</v>
       </c>
       <c r="B54" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C54">
         <v>9036.74</v>
       </c>
       <c r="D54" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E54" s="2">
         <v>41797</v>
@@ -15979,13 +15991,13 @@
         <v>394</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C55">
         <v>6813</v>
       </c>
       <c r="D55" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E55" s="2">
         <v>41799</v>
@@ -15994,7 +16006,7 @@
         <v>41800</v>
       </c>
       <c r="G55" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -16005,13 +16017,13 @@
         <v>395</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C56">
         <v>7339.3</v>
       </c>
       <c r="D56" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E56" s="2">
         <v>41800</v>
@@ -16020,7 +16032,7 @@
         <v>41802</v>
       </c>
       <c r="G56" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -16031,7 +16043,7 @@
         <v>396</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C57">
         <v>5955.5</v>
@@ -16057,13 +16069,13 @@
         <v>397</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C58">
         <v>5168.55</v>
       </c>
       <c r="D58" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E58" s="2">
         <v>41807</v>
@@ -16083,13 +16095,13 @@
         <v>398</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C59">
         <v>5456.85</v>
       </c>
       <c r="D59" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E59" s="2">
         <v>41809</v>
@@ -16109,7 +16121,7 @@
         <v>399</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C60">
         <v>5082.28</v>
@@ -16135,7 +16147,7 @@
         <v>346</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C61">
         <v>5109.24</v>
@@ -16161,7 +16173,7 @@
         <v>400</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C62">
         <v>8770</v>
@@ -16187,13 +16199,13 @@
         <v>401</v>
       </c>
       <c r="B63" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C63">
         <v>6258.95</v>
       </c>
       <c r="D63" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E63" s="2">
         <v>41831</v>
@@ -16213,13 +16225,13 @@
         <v>402</v>
       </c>
       <c r="B64" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C64">
         <v>5223.650000000001</v>
       </c>
       <c r="D64" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E64" s="2">
         <v>41832</v>
@@ -16239,7 +16251,7 @@
         <v>403</v>
       </c>
       <c r="B65" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C65">
         <v>5742.53</v>
@@ -16254,7 +16266,7 @@
         <v>41838</v>
       </c>
       <c r="G65" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H65">
         <v>12</v>
@@ -16265,7 +16277,7 @@
         <v>404</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C66">
         <v>6285</v>
@@ -16291,13 +16303,13 @@
         <v>405</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C67">
         <v>5071.85</v>
       </c>
       <c r="D67" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E67" s="2">
         <v>41843</v>
@@ -16317,13 +16329,13 @@
         <v>406</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>468</v>
       </c>
       <c r="C68">
         <v>5059.599999999999</v>
       </c>
       <c r="D68" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E68" s="2">
         <v>41844</v>
@@ -16332,7 +16344,7 @@
         <v>41848</v>
       </c>
       <c r="G68" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -16343,13 +16355,13 @@
         <v>407</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C69">
         <v>6550</v>
       </c>
       <c r="D69" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E69" s="2">
         <v>41844</v>
@@ -16358,7 +16370,7 @@
         <v>41848</v>
       </c>
       <c r="G69" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -16369,13 +16381,13 @@
         <v>408</v>
       </c>
       <c r="B70" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C70">
         <v>5118.32</v>
       </c>
       <c r="D70" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E70" s="2">
         <v>41848</v>
@@ -16384,7 +16396,7 @@
         <v>41849</v>
       </c>
       <c r="G70" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -16395,7 +16407,7 @@
         <v>409</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C71">
         <v>5699.34</v>
@@ -16421,13 +16433,13 @@
         <v>410</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C72">
         <v>5651.36</v>
       </c>
       <c r="D72" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E72" s="2">
         <v>41850</v>
@@ -16447,7 +16459,7 @@
         <v>411</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C73">
         <v>5084.17</v>
@@ -16473,7 +16485,7 @@
         <v>412</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C74">
         <v>5760.42</v>
@@ -16499,13 +16511,13 @@
         <v>413</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C75">
         <v>5265.030000000001</v>
       </c>
       <c r="D75" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="E75" s="2">
         <v>41863</v>
@@ -16514,7 +16526,7 @@
         <v>41864</v>
       </c>
       <c r="G75" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -16525,7 +16537,7 @@
         <v>414</v>
       </c>
       <c r="B76" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C76">
         <v>5116.93</v>
@@ -16551,7 +16563,7 @@
         <v>415</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C77">
         <v>5090.51</v>
@@ -16577,13 +16589,13 @@
         <v>416</v>
       </c>
       <c r="B78" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C78">
         <v>8709.200000000001</v>
       </c>
       <c r="D78" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E78" s="2">
         <v>41878</v>
@@ -16592,7 +16604,7 @@
         <v>41880</v>
       </c>
       <c r="G78" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -16603,13 +16615,13 @@
         <v>417</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C79">
         <v>5587.31</v>
       </c>
       <c r="D79" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E79" s="2">
         <v>41878</v>
@@ -16618,7 +16630,7 @@
         <v>41880</v>
       </c>
       <c r="G79" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H79">
         <v>4</v>
@@ -16629,13 +16641,13 @@
         <v>418</v>
       </c>
       <c r="B80" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C80">
         <v>6120.47</v>
       </c>
       <c r="D80" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E80" s="2">
         <v>41884</v>
@@ -16655,7 +16667,7 @@
         <v>419</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C81">
         <v>7741.63</v>
@@ -16681,7 +16693,7 @@
         <v>420</v>
       </c>
       <c r="B82" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C82">
         <v>5729.24</v>
@@ -16707,13 +16719,13 @@
         <v>421</v>
       </c>
       <c r="B83" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C83">
         <v>6408.719999999999</v>
       </c>
       <c r="D83" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E83" s="2">
         <v>41890</v>
@@ -16733,7 +16745,7 @@
         <v>422</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C84">
         <v>5358</v>
@@ -16759,13 +16771,13 @@
         <v>423</v>
       </c>
       <c r="B85" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C85">
         <v>10250.63</v>
       </c>
       <c r="D85" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E85" s="2">
         <v>41898</v>
@@ -16785,13 +16797,13 @@
         <v>424</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C86">
         <v>5172.56</v>
       </c>
       <c r="D86" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="E86" s="2">
         <v>41900</v>
@@ -16811,13 +16823,13 @@
         <v>425</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C87">
         <v>5766.88</v>
       </c>
       <c r="D87" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E87" s="2">
         <v>41901</v>
@@ -16826,7 +16838,7 @@
         <v>41904</v>
       </c>
       <c r="G87" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -16837,13 +16849,13 @@
         <v>426</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C88">
         <v>5374.5</v>
       </c>
       <c r="D88" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E88" s="2">
         <v>41905</v>
@@ -16852,7 +16864,7 @@
         <v>41907</v>
       </c>
       <c r="G88" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -16863,13 +16875,13 @@
         <v>427</v>
       </c>
       <c r="B89" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C89">
         <v>5993.29</v>
       </c>
       <c r="D89" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E89" s="2">
         <v>41906</v>
@@ -16878,7 +16890,7 @@
         <v>41907</v>
       </c>
       <c r="G89" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -16889,13 +16901,13 @@
         <v>428</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C90">
         <v>5073.599999999999</v>
       </c>
       <c r="D90" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E90" s="2">
         <v>41907</v>
@@ -16904,7 +16916,7 @@
         <v>41907</v>
       </c>
       <c r="G90" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -16915,13 +16927,13 @@
         <v>429</v>
       </c>
       <c r="B91" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C91">
         <v>7313.16</v>
       </c>
       <c r="D91" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E91" s="2">
         <v>41908</v>
@@ -16941,7 +16953,7 @@
         <v>430</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C92">
         <v>10048</v>
@@ -16967,7 +16979,7 @@
         <v>431</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C93">
         <v>6453.530000000001</v>
@@ -16993,13 +17005,13 @@
         <v>432</v>
       </c>
       <c r="B94" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C94">
         <v>5277.93</v>
       </c>
       <c r="D94" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E94" s="2">
         <v>41914</v>
@@ -17019,13 +17031,13 @@
         <v>433</v>
       </c>
       <c r="B95" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C95">
         <v>5032.690000000001</v>
       </c>
       <c r="D95" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E95" s="2">
         <v>41918</v>
@@ -17034,7 +17046,7 @@
         <v>41919</v>
       </c>
       <c r="G95" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H95">
         <v>4</v>
@@ -17045,13 +17057,13 @@
         <v>434</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C96">
         <v>6088.84</v>
       </c>
       <c r="D96" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="E96" s="2">
         <v>41918</v>
@@ -17071,7 +17083,7 @@
         <v>435</v>
       </c>
       <c r="B97" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C97">
         <v>8957.870000000001</v>
@@ -17097,7 +17109,7 @@
         <v>436</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C98">
         <v>5510.33</v>
@@ -17123,13 +17135,13 @@
         <v>437</v>
       </c>
       <c r="B99" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C99">
         <v>10956.88</v>
       </c>
       <c r="D99" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E99" s="2">
         <v>41923</v>
@@ -17149,13 +17161,13 @@
         <v>438</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C100">
         <v>5069.41</v>
       </c>
       <c r="D100" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E100" s="2">
         <v>41926</v>
@@ -17164,7 +17176,7 @@
         <v>41927</v>
       </c>
       <c r="G100" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -17175,13 +17187,13 @@
         <v>439</v>
       </c>
       <c r="B101" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C101">
         <v>5513.01</v>
       </c>
       <c r="D101" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E101" s="2">
         <v>41932</v>
@@ -17201,7 +17213,7 @@
         <v>440</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C102">
         <v>6985</v>
@@ -17227,13 +17239,13 @@
         <v>441</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C103">
         <v>5190.17</v>
       </c>
       <c r="D103" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="E103" s="2">
         <v>41934</v>
@@ -17253,13 +17265,13 @@
         <v>442</v>
       </c>
       <c r="B104" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C104">
         <v>5372.37</v>
       </c>
       <c r="D104" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E104" s="2">
         <v>41939</v>
@@ -17279,7 +17291,7 @@
         <v>443</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C105">
         <v>7361.440000000001</v>
@@ -17305,13 +17317,13 @@
         <v>444</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C106">
         <v>6289</v>
       </c>
       <c r="D106" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E106" s="2">
         <v>41949</v>
@@ -17320,7 +17332,7 @@
         <v>41950</v>
       </c>
       <c r="G106" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -17331,7 +17343,7 @@
         <v>445</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C107">
         <v>5674.4</v>
@@ -17357,13 +17369,13 @@
         <v>446</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C108">
         <v>5714</v>
       </c>
       <c r="D108" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E108" s="2">
         <v>41954</v>
@@ -17372,7 +17384,7 @@
         <v>41955</v>
       </c>
       <c r="G108" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -17383,13 +17395,13 @@
         <v>447</v>
       </c>
       <c r="B109" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C109">
         <v>8227.889999999999</v>
       </c>
       <c r="D109" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E109" s="2">
         <v>41955</v>
@@ -17409,13 +17421,13 @@
         <v>448</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C110">
         <v>8021.05</v>
       </c>
       <c r="D110" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E110" s="2">
         <v>41955</v>
@@ -17424,7 +17436,7 @@
         <v>41955</v>
       </c>
       <c r="G110" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="H110">
         <v>5</v>
@@ -17435,13 +17447,13 @@
         <v>449</v>
       </c>
       <c r="B111" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C111">
         <v>5015.25</v>
       </c>
       <c r="D111" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E111" s="2">
         <v>41956</v>
@@ -17450,7 +17462,7 @@
         <v>41957</v>
       </c>
       <c r="G111" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H111">
         <v>5</v>
@@ -17461,7 +17473,7 @@
         <v>450</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C112">
         <v>6918.8</v>
@@ -17487,7 +17499,7 @@
         <v>451</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C113">
         <v>5077.34</v>
@@ -17513,7 +17525,7 @@
         <v>452</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C114">
         <v>5006.75</v>
@@ -17539,7 +17551,7 @@
         <v>453</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C115">
         <v>8022.660000000001</v>
@@ -17565,7 +17577,7 @@
         <v>454</v>
       </c>
       <c r="B116" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C116">
         <v>5237.76</v>
@@ -17591,7 +17603,7 @@
         <v>455</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C117">
         <v>5327</v>
@@ -17617,13 +17629,13 @@
         <v>456</v>
       </c>
       <c r="B118" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C118">
         <v>6008.15</v>
       </c>
       <c r="D118" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E118" s="2">
         <v>41985</v>
@@ -17632,7 +17644,7 @@
         <v>41988</v>
       </c>
       <c r="G118" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -17643,13 +17655,13 @@
         <v>457</v>
       </c>
       <c r="B119" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C119">
         <v>6125</v>
       </c>
       <c r="D119" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="E119" s="2">
         <v>41985</v>
@@ -17669,13 +17681,13 @@
         <v>458</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="C120">
         <v>6760</v>
       </c>
       <c r="D120" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E120" s="2">
         <v>41988</v>
@@ -17743,7 +17755,7 @@
         <v>6.67</v>
       </c>
       <c r="E2" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="F2" s="2">
         <v>41706</v>
@@ -17752,7 +17764,7 @@
         <v>41708</v>
       </c>
       <c r="H2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -17769,7 +17781,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F3" s="2">
         <v>41706</v>
@@ -17778,7 +17790,7 @@
         <v>41708</v>
       </c>
       <c r="H3" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -17795,7 +17807,7 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="F4" s="2">
         <v>41706</v>
@@ -17804,7 +17816,7 @@
         <v>41708</v>
       </c>
       <c r="H4" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -17821,7 +17833,7 @@
         <v>103.95</v>
       </c>
       <c r="E5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F5" s="2">
         <v>41706</v>
@@ -17830,7 +17842,7 @@
         <v>41708</v>
       </c>
       <c r="H5" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -17847,7 +17859,7 @@
         <v>103.95</v>
       </c>
       <c r="E6" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F6" s="2">
         <v>41706</v>
@@ -17856,7 +17868,7 @@
         <v>41708</v>
       </c>
       <c r="H6" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -17873,7 +17885,7 @@
         <v>103.95</v>
       </c>
       <c r="E7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F7" s="2">
         <v>41706</v>
@@ -17882,7 +17894,7 @@
         <v>41708</v>
       </c>
       <c r="H7" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -17899,7 +17911,7 @@
         <v>103.95</v>
       </c>
       <c r="E8" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F8" s="2">
         <v>41706</v>
@@ -17908,7 +17920,7 @@
         <v>41708</v>
       </c>
       <c r="H8" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -17925,7 +17937,7 @@
         <v>103.95</v>
       </c>
       <c r="E9" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F9" s="2">
         <v>41706</v>
@@ -17934,7 +17946,7 @@
         <v>41708</v>
       </c>
       <c r="H9" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -17951,7 +17963,7 @@
         <v>103.95</v>
       </c>
       <c r="E10" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F10" s="2">
         <v>41706</v>
@@ -17960,7 +17972,7 @@
         <v>41708</v>
       </c>
       <c r="H10" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -17977,7 +17989,7 @@
         <v>110.8</v>
       </c>
       <c r="E11" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F11" s="2">
         <v>41706</v>
@@ -17986,7 +17998,7 @@
         <v>41708</v>
       </c>
       <c r="H11" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -18003,7 +18015,7 @@
         <v>118.43</v>
       </c>
       <c r="E12" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="F12" s="2">
         <v>41950</v>
@@ -18012,7 +18024,7 @@
         <v>41953</v>
       </c>
       <c r="H12" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -18029,7 +18041,7 @@
         <v>150.8</v>
       </c>
       <c r="E13" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="F13" s="2">
         <v>41950</v>
@@ -18038,7 +18050,7 @@
         <v>41953</v>
       </c>
       <c r="H13" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -18055,7 +18067,7 @@
         <v>973.51</v>
       </c>
       <c r="E14" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F14" s="2">
         <v>41950</v>
@@ -18081,7 +18093,7 @@
         <v>1033.46</v>
       </c>
       <c r="E15" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F15" s="2">
         <v>41960</v>
@@ -18107,7 +18119,7 @@
         <v>1500</v>
       </c>
       <c r="E16" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F16" s="2">
         <v>41960</v>
@@ -18116,12 +18128,12 @@
         <v>41962</v>
       </c>
       <c r="H16" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -18133,7 +18145,7 @@
         <v>421.44</v>
       </c>
       <c r="E17" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F17" s="2">
         <v>41768</v>
@@ -18147,7 +18159,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -18159,7 +18171,7 @@
         <v>458.09</v>
       </c>
       <c r="E18" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F18" s="2">
         <v>41768</v>
@@ -18173,7 +18185,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -18185,7 +18197,7 @@
         <v>2662.62</v>
       </c>
       <c r="E19" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F19" s="2">
         <v>41768</v>
@@ -18199,7 +18211,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B20" t="s">
         <v>192</v>
@@ -18211,7 +18223,7 @@
         <v>99.98999999999999</v>
       </c>
       <c r="E20" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F20" s="2">
         <v>41707</v>
@@ -18220,12 +18232,12 @@
         <v>41709</v>
       </c>
       <c r="H20" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B21" t="s">
         <v>192</v>
@@ -18237,7 +18249,7 @@
         <v>99.98999999999999</v>
       </c>
       <c r="E21" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F21" s="2">
         <v>41707</v>
@@ -18246,12 +18258,12 @@
         <v>41709</v>
       </c>
       <c r="H21" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B22" t="s">
         <v>192</v>
@@ -18263,7 +18275,7 @@
         <v>99.98999999999999</v>
       </c>
       <c r="E22" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F22" s="2">
         <v>41707</v>
@@ -18272,12 +18284,12 @@
         <v>41709</v>
       </c>
       <c r="H22" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B23" t="s">
         <v>192</v>
@@ -18289,7 +18301,7 @@
         <v>99.98999999999999</v>
       </c>
       <c r="E23" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F23" s="2">
         <v>41707</v>
@@ -18298,12 +18310,12 @@
         <v>41709</v>
       </c>
       <c r="H23" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B24" t="s">
         <v>192</v>
@@ -18315,7 +18327,7 @@
         <v>99.98999999999999</v>
       </c>
       <c r="E24" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F24" s="2">
         <v>41707</v>
@@ -18324,12 +18336,12 @@
         <v>41709</v>
       </c>
       <c r="H24" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B25" t="s">
         <v>192</v>
@@ -18341,7 +18353,7 @@
         <v>212.6</v>
       </c>
       <c r="E25" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F25" s="2">
         <v>41707</v>
@@ -18355,7 +18367,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -18367,7 +18379,7 @@
         <v>149.04</v>
       </c>
       <c r="E26" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F26" s="2">
         <v>41838</v>
@@ -18381,7 +18393,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -18393,7 +18405,7 @@
         <v>2936.4</v>
       </c>
       <c r="E27" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F27" s="2">
         <v>41838</v>
@@ -18419,7 +18431,7 @@
         <v>39.49</v>
       </c>
       <c r="E28" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F28" s="2">
         <v>41905</v>
@@ -18428,7 +18440,7 @@
         <v>41906</v>
       </c>
       <c r="H28" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -18445,7 +18457,7 @@
         <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="F29" s="2">
         <v>41905</v>
@@ -18454,7 +18466,7 @@
         <v>41907</v>
       </c>
       <c r="H29" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -18523,7 +18535,7 @@
         <v>280.6</v>
       </c>
       <c r="E32" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F32" s="2">
         <v>41905</v>
@@ -18549,7 +18561,7 @@
         <v>280.89</v>
       </c>
       <c r="E33" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F33" s="2">
         <v>41852</v>
@@ -18558,7 +18570,7 @@
         <v>41855</v>
       </c>
       <c r="H33" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -18601,7 +18613,7 @@
         <v>399.51</v>
       </c>
       <c r="E35" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F35" s="2">
         <v>41852</v>
@@ -18627,7 +18639,7 @@
         <v>728.02</v>
       </c>
       <c r="E36" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F36" s="2">
         <v>41851</v>
@@ -18641,7 +18653,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B37" t="s">
         <v>253</v>
@@ -18653,7 +18665,7 @@
         <v>-0.01</v>
       </c>
       <c r="E37" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F37" s="2">
         <v>41715</v>
@@ -18667,7 +18679,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B38" t="s">
         <v>253</v>
@@ -18679,7 +18691,7 @@
         <v>0.01</v>
       </c>
       <c r="E38" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F38" s="2">
         <v>41715</v>
@@ -18693,7 +18705,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B39" t="s">
         <v>253</v>
@@ -18705,7 +18717,7 @@
         <v>412</v>
       </c>
       <c r="E39" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F39" s="2">
         <v>41715</v>
@@ -18731,7 +18743,7 @@
         <v>122.7</v>
       </c>
       <c r="E40" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F40" s="2">
         <v>41674</v>
@@ -18757,7 +18769,7 @@
         <v>127.31</v>
       </c>
       <c r="E41" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F41" s="2">
         <v>41674</v>
@@ -18766,7 +18778,7 @@
         <v>41675</v>
       </c>
       <c r="H41" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -18783,7 +18795,7 @@
         <v>197.55</v>
       </c>
       <c r="E42" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="F42" s="2">
         <v>41942</v>
@@ -18809,7 +18821,7 @@
         <v>405</v>
       </c>
       <c r="E43" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F43" s="2">
         <v>41942</v>
@@ -18835,7 +18847,7 @@
         <v>190</v>
       </c>
       <c r="E44" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F44" s="2">
         <v>41760</v>
@@ -18861,7 +18873,7 @@
         <v>589.86</v>
       </c>
       <c r="E45" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F45" s="2">
         <v>41760</v>
@@ -18875,7 +18887,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B46" t="s">
         <v>199</v>
@@ -18887,7 +18899,7 @@
         <v>28.3</v>
       </c>
       <c r="E46" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F46" s="2">
         <v>41917</v>
@@ -18896,12 +18908,12 @@
         <v>41919</v>
       </c>
       <c r="H46" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B47" t="s">
         <v>199</v>
@@ -18913,7 +18925,7 @@
         <v>961.65</v>
       </c>
       <c r="E47" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F47" s="2">
         <v>41917</v>
@@ -18939,7 +18951,7 @@
         <v>23.15</v>
       </c>
       <c r="E48" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F48" s="2">
         <v>41776</v>
@@ -18948,7 +18960,7 @@
         <v>41778</v>
       </c>
       <c r="H48" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -18965,7 +18977,7 @@
         <v>69.59999999999999</v>
       </c>
       <c r="E49" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="F49" s="2">
         <v>41703</v>
@@ -18991,7 +19003,7 @@
         <v>78.70999999999999</v>
       </c>
       <c r="E50" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="F50" s="2">
         <v>41776</v>
@@ -19000,7 +19012,7 @@
         <v>41778</v>
       </c>
       <c r="H50" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -19017,7 +19029,7 @@
         <v>82.7</v>
       </c>
       <c r="E51" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F51" s="2">
         <v>41787</v>
@@ -19026,7 +19038,7 @@
         <v>41789</v>
       </c>
       <c r="H51" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -19043,7 +19055,7 @@
         <v>100.01</v>
       </c>
       <c r="E52" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="F52" s="2">
         <v>41787</v>
@@ -19069,7 +19081,7 @@
         <v>443.52</v>
       </c>
       <c r="E53" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F53" s="2">
         <v>41703</v>
@@ -19078,7 +19090,7 @@
         <v>41705</v>
       </c>
       <c r="H53" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -19095,7 +19107,7 @@
         <v>443.52</v>
       </c>
       <c r="E54" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F54" s="2">
         <v>41703</v>
@@ -19104,7 +19116,7 @@
         <v>41705</v>
       </c>
       <c r="H54" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -19121,7 +19133,7 @@
         <v>443.52</v>
       </c>
       <c r="E55" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F55" s="2">
         <v>41703</v>
@@ -19130,7 +19142,7 @@
         <v>41705</v>
       </c>
       <c r="H55" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -19147,7 +19159,7 @@
         <v>510.72</v>
       </c>
       <c r="E56" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F56" s="2">
         <v>41703</v>
@@ -19156,7 +19168,7 @@
         <v>41705</v>
       </c>
       <c r="H56" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -19173,7 +19185,7 @@
         <v>895.79</v>
       </c>
       <c r="E57" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F57" s="2">
         <v>41787</v>
@@ -19182,7 +19194,7 @@
         <v>41789</v>
       </c>
       <c r="H57" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -19199,7 +19211,7 @@
         <v>977.97</v>
       </c>
       <c r="E58" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F58" s="2">
         <v>41787</v>
@@ -19208,7 +19220,7 @@
         <v>41789</v>
       </c>
       <c r="H58" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -19225,7 +19237,7 @@
         <v>977.97</v>
       </c>
       <c r="E59" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F59" s="2">
         <v>41787</v>
@@ -19234,7 +19246,7 @@
         <v>41789</v>
       </c>
       <c r="H59" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -19251,7 +19263,7 @@
         <v>980.47</v>
       </c>
       <c r="E60" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F60" s="2">
         <v>41787</v>
@@ -19260,7 +19272,7 @@
         <v>41789</v>
       </c>
       <c r="H60" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -19277,7 +19289,7 @@
         <v>983.47</v>
       </c>
       <c r="E61" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F61" s="2">
         <v>41787</v>
@@ -19286,7 +19298,7 @@
         <v>41789</v>
       </c>
       <c r="H61" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -19303,7 +19315,7 @@
         <v>2180.32</v>
       </c>
       <c r="E62" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F62" s="2">
         <v>41776</v>
@@ -19329,7 +19341,7 @@
         <v>64.93000000000001</v>
       </c>
       <c r="E63" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="F63" s="2">
         <v>41920</v>
@@ -19338,7 +19350,7 @@
         <v>41921</v>
       </c>
       <c r="H63" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -19355,7 +19367,7 @@
         <v>100.24</v>
       </c>
       <c r="E64" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="F64" s="2">
         <v>41727</v>
@@ -19364,7 +19376,7 @@
         <v>41729</v>
       </c>
       <c r="H64" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -19381,7 +19393,7 @@
         <v>110.26</v>
       </c>
       <c r="E65" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F65" s="2">
         <v>41734</v>
@@ -19407,7 +19419,7 @@
         <v>188.36</v>
       </c>
       <c r="E66" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="F66" s="2">
         <v>41734</v>
@@ -19416,7 +19428,7 @@
         <v>41736</v>
       </c>
       <c r="H66" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -19433,7 +19445,7 @@
         <v>190.74</v>
       </c>
       <c r="E67" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F67" s="2">
         <v>41734</v>
@@ -19459,7 +19471,7 @@
         <v>642.72</v>
       </c>
       <c r="E68" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F68" s="2">
         <v>41874</v>
@@ -19485,7 +19497,7 @@
         <v>1230</v>
       </c>
       <c r="E69" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="F69" s="2">
         <v>41874</v>
@@ -19494,7 +19506,7 @@
         <v>41876</v>
       </c>
       <c r="H69" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -19511,7 +19523,7 @@
         <v>1431.22</v>
       </c>
       <c r="E70" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="F70" s="2">
         <v>41734</v>
@@ -19520,7 +19532,7 @@
         <v>41736</v>
       </c>
       <c r="H70" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -19537,7 +19549,7 @@
         <v>1651.04</v>
       </c>
       <c r="E71" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="F71" s="2">
         <v>41727</v>
@@ -19546,7 +19558,7 @@
         <v>41729</v>
       </c>
       <c r="H71" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -19563,7 +19575,7 @@
         <v>2000.32</v>
       </c>
       <c r="E72" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="F72" s="2">
         <v>41920</v>
@@ -19589,7 +19601,7 @@
         <v>39.87</v>
       </c>
       <c r="E73" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F73" s="2">
         <v>41702</v>
@@ -19598,7 +19610,7 @@
         <v>41704</v>
       </c>
       <c r="H73" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -19615,7 +19627,7 @@
         <v>48.11</v>
       </c>
       <c r="E74" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="F74" s="2">
         <v>41756</v>
@@ -19624,7 +19636,7 @@
         <v>41757</v>
       </c>
       <c r="H74" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -19641,7 +19653,7 @@
         <v>50.14</v>
       </c>
       <c r="E75" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="F75" s="2">
         <v>41681</v>
@@ -19650,7 +19662,7 @@
         <v>41683</v>
       </c>
       <c r="H75" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -19667,7 +19679,7 @@
         <v>56.57</v>
       </c>
       <c r="E76" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="F76" s="2">
         <v>41772</v>
@@ -19693,7 +19705,7 @@
         <v>102.5</v>
       </c>
       <c r="E77" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="F77" s="2">
         <v>41938</v>
@@ -19719,7 +19731,7 @@
         <v>112</v>
       </c>
       <c r="E78" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="F78" s="2">
         <v>41938</v>
@@ -19745,7 +19757,7 @@
         <v>183.53</v>
       </c>
       <c r="E79" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F79" s="2">
         <v>41772</v>
@@ -19771,7 +19783,7 @@
         <v>224.22</v>
       </c>
       <c r="E80" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F80" s="2">
         <v>41702</v>
@@ -19797,7 +19809,7 @@
         <v>230.3</v>
       </c>
       <c r="E81" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="F81" s="2">
         <v>41784</v>
@@ -19806,7 +19818,7 @@
         <v>41785</v>
       </c>
       <c r="H81" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -19823,7 +19835,7 @@
         <v>336.33</v>
       </c>
       <c r="E82" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F82" s="2">
         <v>41702</v>
@@ -19849,7 +19861,7 @@
         <v>336.33</v>
       </c>
       <c r="E83" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F83" s="2">
         <v>41702</v>
@@ -19875,7 +19887,7 @@
         <v>336.33</v>
       </c>
       <c r="E84" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F84" s="2">
         <v>41702</v>
@@ -19901,7 +19913,7 @@
         <v>389.6</v>
       </c>
       <c r="E85" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F85" s="2">
         <v>41780</v>
@@ -19910,7 +19922,7 @@
         <v>41781</v>
       </c>
       <c r="H85" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -19927,7 +19939,7 @@
         <v>407</v>
       </c>
       <c r="E86" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="F86" s="2">
         <v>41781</v>
@@ -19953,7 +19965,7 @@
         <v>416.63</v>
       </c>
       <c r="E87" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F87" s="2">
         <v>41702</v>
@@ -19979,7 +19991,7 @@
         <v>484.32</v>
       </c>
       <c r="E88" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="F88" s="2">
         <v>41681</v>
@@ -20005,7 +20017,7 @@
         <v>583.7</v>
       </c>
       <c r="E89" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="F89" s="2">
         <v>41784</v>
@@ -20031,7 +20043,7 @@
         <v>661.08</v>
       </c>
       <c r="E90" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="F90" s="2">
         <v>41783</v>
@@ -20057,7 +20069,7 @@
         <v>732.5599999999999</v>
       </c>
       <c r="E91" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F91" s="2">
         <v>41756</v>
@@ -20083,7 +20095,7 @@
         <v>732.5599999999999</v>
       </c>
       <c r="E92" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F92" s="2">
         <v>41756</v>
@@ -20109,7 +20121,7 @@
         <v>732.5599999999999</v>
       </c>
       <c r="E93" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F93" s="2">
         <v>41756</v>
@@ -20135,7 +20147,7 @@
         <v>744.5599999999999</v>
       </c>
       <c r="E94" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F94" s="2">
         <v>41756</v>
@@ -20161,7 +20173,7 @@
         <v>748</v>
       </c>
       <c r="E95" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F95" s="2">
         <v>41781</v>
@@ -20170,7 +20182,7 @@
         <v>41785</v>
       </c>
       <c r="H95" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -20187,7 +20199,7 @@
         <v>764.95</v>
       </c>
       <c r="E96" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F96" s="2">
         <v>41780</v>
@@ -20196,7 +20208,7 @@
         <v>41782</v>
       </c>
       <c r="H96" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -20213,7 +20225,7 @@
         <v>764.95</v>
       </c>
       <c r="E97" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F97" s="2">
         <v>41783</v>
@@ -20222,7 +20234,7 @@
         <v>41785</v>
       </c>
       <c r="H97" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -20239,7 +20251,7 @@
         <v>774.95</v>
       </c>
       <c r="E98" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F98" s="2">
         <v>41784</v>
@@ -20248,7 +20260,7 @@
         <v>41786</v>
       </c>
       <c r="H98" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -20265,7 +20277,7 @@
         <v>1364</v>
       </c>
       <c r="E99" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="F99" s="2">
         <v>41938</v>
@@ -20291,7 +20303,7 @@
         <v>545.16</v>
       </c>
       <c r="E100" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="F100" s="2">
         <v>41752</v>
@@ -20317,7 +20329,7 @@
         <v>4558.03</v>
       </c>
       <c r="E101" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="F101" s="2">
         <v>41752</v>
@@ -20326,7 +20338,7 @@
         <v>41754</v>
       </c>
       <c r="H101" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -20343,7 +20355,7 @@
         <v>9.66</v>
       </c>
       <c r="E102" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F102" s="2">
         <v>41700</v>
@@ -20369,7 +20381,7 @@
         <v>17.71</v>
       </c>
       <c r="E103" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F103" s="2">
         <v>41700</v>
@@ -20378,7 +20390,7 @@
         <v>41702</v>
       </c>
       <c r="H103" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -20395,7 +20407,7 @@
         <v>31.19</v>
       </c>
       <c r="E104" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F104" s="2">
         <v>41700</v>
@@ -20404,7 +20416,7 @@
         <v>41701</v>
       </c>
       <c r="H104" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -20421,7 +20433,7 @@
         <v>36.81</v>
       </c>
       <c r="E105" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F105" s="2">
         <v>41700</v>
@@ -20430,7 +20442,7 @@
         <v>41701</v>
       </c>
       <c r="H105" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -20447,7 +20459,7 @@
         <v>220.35</v>
       </c>
       <c r="E106" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F106" s="2">
         <v>41700</v>
@@ -20473,7 +20485,7 @@
         <v>223.74</v>
       </c>
       <c r="E107" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="F107" s="2">
         <v>41700</v>
@@ -20499,7 +20511,7 @@
         <v>223.74</v>
       </c>
       <c r="E108" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="F108" s="2">
         <v>41700</v>
@@ -20525,7 +20537,7 @@
         <v>240.69</v>
       </c>
       <c r="E109" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="F109" s="2">
         <v>41952</v>
@@ -20551,7 +20563,7 @@
         <v>246.34</v>
       </c>
       <c r="E110" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="F110" s="2">
         <v>41700</v>
@@ -20577,7 +20589,7 @@
         <v>1689.15</v>
       </c>
       <c r="E111" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F111" s="2">
         <v>41952</v>
@@ -20591,7 +20603,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B112" t="s">
         <v>198</v>
@@ -20603,7 +20615,7 @@
         <v>-179.99</v>
       </c>
       <c r="E112" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F112" s="2">
         <v>41926</v>
@@ -20612,12 +20624,12 @@
         <v>41928</v>
       </c>
       <c r="H112" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B113" t="s">
         <v>198</v>
@@ -20629,7 +20641,7 @@
         <v>109.99</v>
       </c>
       <c r="E113" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F113" s="2">
         <v>41926</v>
@@ -20638,12 +20650,12 @@
         <v>41928</v>
       </c>
       <c r="H113" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B114" t="s">
         <v>198</v>
@@ -20655,7 +20667,7 @@
         <v>250</v>
       </c>
       <c r="E114" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F114" s="2">
         <v>41926</v>
@@ -20681,7 +20693,7 @@
         <v>68</v>
       </c>
       <c r="E115" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="F115" s="2">
         <v>41926</v>
@@ -20707,7 +20719,7 @@
         <v>158.47</v>
       </c>
       <c r="E116" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="F116" s="2">
         <v>41739</v>
@@ -20716,7 +20728,7 @@
         <v>41740</v>
       </c>
       <c r="H116" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -20733,7 +20745,7 @@
         <v>245.51</v>
       </c>
       <c r="E117" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="F117" s="2">
         <v>41728</v>
@@ -20759,7 +20771,7 @@
         <v>276.55</v>
       </c>
       <c r="E118" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="F118" s="2">
         <v>41742</v>
@@ -20768,7 +20780,7 @@
         <v>41744</v>
       </c>
       <c r="H118" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -20785,7 +20797,7 @@
         <v>278.23</v>
       </c>
       <c r="E119" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="F119" s="2">
         <v>41739</v>
@@ -20794,7 +20806,7 @@
         <v>41740</v>
       </c>
       <c r="H119" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -20811,7 +20823,7 @@
         <v>914</v>
       </c>
       <c r="E120" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F120" s="2">
         <v>41926</v>
@@ -20837,7 +20849,7 @@
         <v>1089</v>
       </c>
       <c r="E121" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F121" s="2">
         <v>41739</v>
@@ -20889,7 +20901,7 @@
         <v>4653</v>
       </c>
       <c r="E123" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F123" s="2">
         <v>41742</v>
@@ -20903,7 +20915,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B124" t="s">
         <v>198</v>
@@ -20915,7 +20927,7 @@
         <v>-184.8</v>
       </c>
       <c r="E124" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="F124" s="2">
         <v>41792</v>
@@ -20924,12 +20936,12 @@
         <v>41794</v>
       </c>
       <c r="H124" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B125" t="s">
         <v>198</v>
@@ -20941,7 +20953,7 @@
         <v>-184.8</v>
       </c>
       <c r="E125" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="F125" s="2">
         <v>41792</v>
@@ -20950,12 +20962,12 @@
         <v>41794</v>
       </c>
       <c r="H125" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B126" t="s">
         <v>198</v>
@@ -20967,7 +20979,7 @@
         <v>-184.8</v>
       </c>
       <c r="E126" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="F126" s="2">
         <v>41792</v>
@@ -20976,12 +20988,12 @@
         <v>41794</v>
       </c>
       <c r="H126" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B127" t="s">
         <v>198</v>
@@ -20993,7 +21005,7 @@
         <v>-184.8</v>
       </c>
       <c r="E127" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="F127" s="2">
         <v>41792</v>
@@ -21002,12 +21014,12 @@
         <v>41794</v>
       </c>
       <c r="H127" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B128" t="s">
         <v>198</v>
@@ -21019,7 +21031,7 @@
         <v>117.18</v>
       </c>
       <c r="E128" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F128" s="2">
         <v>41792</v>
@@ -21033,7 +21045,7 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B129" t="s">
         <v>17</v>
@@ -21045,7 +21057,7 @@
         <v>185.25</v>
       </c>
       <c r="E129" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="F129" s="2">
         <v>41796</v>
@@ -21054,12 +21066,12 @@
         <v>41799</v>
       </c>
       <c r="H129" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B130" t="s">
         <v>17</v>
@@ -21071,7 +21083,7 @@
         <v>389.02</v>
       </c>
       <c r="E130" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F130" s="2">
         <v>41796</v>
@@ -21097,7 +21109,7 @@
         <v>87</v>
       </c>
       <c r="E131" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="F131" s="2">
         <v>41724</v>
@@ -21106,7 +21118,7 @@
         <v>41725</v>
       </c>
       <c r="H131" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -21123,7 +21135,7 @@
         <v>94.29000000000001</v>
       </c>
       <c r="E132" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F132" s="2">
         <v>41849</v>
@@ -21132,7 +21144,7 @@
         <v>41850</v>
       </c>
       <c r="H132" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -21149,7 +21161,7 @@
         <v>94.29000000000001</v>
       </c>
       <c r="E133" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F133" s="2">
         <v>41849</v>
@@ -21158,7 +21170,7 @@
         <v>41850</v>
       </c>
       <c r="H133" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -21175,7 +21187,7 @@
         <v>94.29000000000001</v>
       </c>
       <c r="E134" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F134" s="2">
         <v>41849</v>
@@ -21184,7 +21196,7 @@
         <v>41850</v>
       </c>
       <c r="H134" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -21201,7 +21213,7 @@
         <v>94.29000000000001</v>
       </c>
       <c r="E135" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F135" s="2">
         <v>41849</v>
@@ -21210,7 +21222,7 @@
         <v>41850</v>
       </c>
       <c r="H135" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -21227,7 +21239,7 @@
         <v>94.29000000000001</v>
       </c>
       <c r="E136" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F136" s="2">
         <v>41849</v>
@@ -21236,7 +21248,7 @@
         <v>41850</v>
       </c>
       <c r="H136" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -21253,7 +21265,7 @@
         <v>94.29000000000001</v>
       </c>
       <c r="E137" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F137" s="2">
         <v>41849</v>
@@ -21262,7 +21274,7 @@
         <v>41850</v>
       </c>
       <c r="H137" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -21279,7 +21291,7 @@
         <v>94.29000000000001</v>
       </c>
       <c r="E138" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F138" s="2">
         <v>41849</v>
@@ -21288,7 +21300,7 @@
         <v>41850</v>
       </c>
       <c r="H138" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -21305,7 +21317,7 @@
         <v>94.29000000000001</v>
       </c>
       <c r="E139" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F139" s="2">
         <v>41849</v>
@@ -21314,7 +21326,7 @@
         <v>41850</v>
       </c>
       <c r="H139" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -21331,7 +21343,7 @@
         <v>94.29000000000001</v>
       </c>
       <c r="E140" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F140" s="2">
         <v>41849</v>
@@ -21340,7 +21352,7 @@
         <v>41850</v>
       </c>
       <c r="H140" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -21357,7 +21369,7 @@
         <v>94.29000000000001</v>
       </c>
       <c r="E141" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F141" s="2">
         <v>41849</v>
@@ -21366,7 +21378,7 @@
         <v>41850</v>
       </c>
       <c r="H141" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -21383,7 +21395,7 @@
         <v>94.29000000000001</v>
       </c>
       <c r="E142" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F142" s="2">
         <v>41849</v>
@@ -21392,7 +21404,7 @@
         <v>41850</v>
       </c>
       <c r="H142" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -21409,7 +21421,7 @@
         <v>94.29000000000001</v>
       </c>
       <c r="E143" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F143" s="2">
         <v>41849</v>
@@ -21418,7 +21430,7 @@
         <v>41850</v>
       </c>
       <c r="H143" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -21435,7 +21447,7 @@
         <v>94.29000000000001</v>
       </c>
       <c r="E144" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F144" s="2">
         <v>41849</v>
@@ -21444,7 +21456,7 @@
         <v>41850</v>
       </c>
       <c r="H144" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -21461,7 +21473,7 @@
         <v>110.24</v>
       </c>
       <c r="E145" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="F145" s="2">
         <v>41724</v>
@@ -21487,7 +21499,7 @@
         <v>250.37</v>
       </c>
       <c r="E146" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F146" s="2">
         <v>41849</v>
@@ -21501,7 +21513,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B147" t="s">
         <v>196</v>
@@ -21513,7 +21525,7 @@
         <v>-374.21</v>
       </c>
       <c r="E147" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="F147" s="2">
         <v>41864</v>
@@ -21522,12 +21534,12 @@
         <v>41865</v>
       </c>
       <c r="H147" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B148" t="s">
         <v>196</v>
@@ -21539,7 +21551,7 @@
         <v>73.31</v>
       </c>
       <c r="E148" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F148" s="2">
         <v>41864</v>
@@ -21548,12 +21560,12 @@
         <v>41864</v>
       </c>
       <c r="H148" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B149" t="s">
         <v>196</v>
@@ -21565,7 +21577,7 @@
         <v>110.33</v>
       </c>
       <c r="E149" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="F149" s="2">
         <v>41860</v>
@@ -21579,7 +21591,7 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B150" t="s">
         <v>196</v>
@@ -21591,7 +21603,7 @@
         <v>121.74</v>
       </c>
       <c r="E150" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="F150" s="2">
         <v>41862</v>
@@ -21605,7 +21617,7 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B151" t="s">
         <v>196</v>
@@ -21617,7 +21629,7 @@
         <v>128.64</v>
       </c>
       <c r="E151" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="F151" s="2">
         <v>41860</v>
@@ -21631,7 +21643,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B152" t="s">
         <v>196</v>
@@ -21643,7 +21655,7 @@
         <v>134.39</v>
       </c>
       <c r="E152" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="F152" s="2">
         <v>41860</v>
@@ -21652,12 +21664,12 @@
         <v>41862</v>
       </c>
       <c r="H152" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B153" t="s">
         <v>196</v>
@@ -21669,7 +21681,7 @@
         <v>134.39</v>
       </c>
       <c r="E153" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="F153" s="2">
         <v>41860</v>
@@ -21678,12 +21690,12 @@
         <v>41862</v>
       </c>
       <c r="H153" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B154" t="s">
         <v>196</v>
@@ -21695,7 +21707,7 @@
         <v>138.44</v>
       </c>
       <c r="E154" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="F154" s="2">
         <v>41864</v>
@@ -21704,12 +21716,12 @@
         <v>41865</v>
       </c>
       <c r="H154" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B155" t="s">
         <v>196</v>
@@ -21721,7 +21733,7 @@
         <v>144.58</v>
       </c>
       <c r="E155" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F155" s="2">
         <v>41862</v>
@@ -21730,12 +21742,12 @@
         <v>41864</v>
       </c>
       <c r="H155" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B156" t="s">
         <v>196</v>
@@ -21747,7 +21759,7 @@
         <v>144.58</v>
       </c>
       <c r="E156" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F156" s="2">
         <v>41862</v>
@@ -21756,12 +21768,12 @@
         <v>41864</v>
       </c>
       <c r="H156" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B157" t="s">
         <v>196</v>
@@ -21773,7 +21785,7 @@
         <v>177.25</v>
       </c>
       <c r="E157" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="F157" s="2">
         <v>41860</v>
@@ -21787,7 +21799,7 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B158" t="s">
         <v>196</v>
@@ -21799,7 +21811,7 @@
         <v>184.78</v>
       </c>
       <c r="E158" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="F158" s="2">
         <v>41860</v>
@@ -21808,12 +21820,12 @@
         <v>41862</v>
       </c>
       <c r="H158" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B159" t="s">
         <v>196</v>
@@ -21825,7 +21837,7 @@
         <v>195.05</v>
       </c>
       <c r="E159" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F159" s="2">
         <v>41862</v>
@@ -21834,7 +21846,7 @@
         <v>41864</v>
       </c>
       <c r="H159" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -21851,7 +21863,7 @@
         <v>89</v>
       </c>
       <c r="E160" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F160" s="2">
         <v>41713</v>
@@ -21877,7 +21889,7 @@
         <v>151.23</v>
       </c>
       <c r="E161" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="F161" s="2">
         <v>41671</v>
@@ -21886,7 +21898,7 @@
         <v>41673</v>
       </c>
       <c r="H161" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -21903,7 +21915,7 @@
         <v>232.86</v>
       </c>
       <c r="E162" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="F162" s="2">
         <v>41726</v>
@@ -21929,7 +21941,7 @@
         <v>243.7</v>
       </c>
       <c r="E163" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F163" s="2">
         <v>41748</v>
@@ -21955,7 +21967,7 @@
         <v>298.25</v>
       </c>
       <c r="E164" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F164" s="2">
         <v>41671</v>
@@ -21964,7 +21976,7 @@
         <v>41673</v>
       </c>
       <c r="H164" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -21981,7 +21993,7 @@
         <v>388.21</v>
       </c>
       <c r="E165" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="F165" s="2">
         <v>41671</v>
@@ -22007,7 +22019,7 @@
         <v>400.92</v>
       </c>
       <c r="E166" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F166" s="2">
         <v>41713</v>
@@ -22016,7 +22028,7 @@
         <v>41715</v>
       </c>
       <c r="H166" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -22033,7 +22045,7 @@
         <v>571.8</v>
       </c>
       <c r="E167" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="F167" s="2">
         <v>41726</v>
@@ -22059,7 +22071,7 @@
         <v>625.63</v>
       </c>
       <c r="E168" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="F168" s="2">
         <v>41726</v>
@@ -22085,7 +22097,7 @@
         <v>718.03</v>
       </c>
       <c r="E169" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="F169" s="2">
         <v>41748</v>
@@ -22099,7 +22111,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B170" t="s">
         <v>14</v>
@@ -22111,7 +22123,7 @@
         <v>22.26</v>
       </c>
       <c r="E170" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="F170" s="2">
         <v>41952</v>
@@ -22120,12 +22132,12 @@
         <v>41953</v>
       </c>
       <c r="H170" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B171" t="s">
         <v>14</v>
@@ -22137,7 +22149,7 @@
         <v>28.19</v>
       </c>
       <c r="E171" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="F171" s="2">
         <v>41952</v>
@@ -22146,12 +22158,12 @@
         <v>41954</v>
       </c>
       <c r="H171" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B172" t="s">
         <v>14</v>
@@ -22163,7 +22175,7 @@
         <v>81.83</v>
       </c>
       <c r="E172" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="F172" s="2">
         <v>41684</v>
@@ -22177,7 +22189,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B173" t="s">
         <v>14</v>
@@ -22189,7 +22201,7 @@
         <v>84</v>
       </c>
       <c r="E173" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="F173" s="2">
         <v>41952</v>
@@ -22203,7 +22215,7 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B174" t="s">
         <v>14</v>
@@ -22215,7 +22227,7 @@
         <v>89</v>
       </c>
       <c r="E174" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F174" s="2">
         <v>41664</v>
@@ -22224,12 +22236,12 @@
         <v>41666</v>
       </c>
       <c r="H174" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B175" t="s">
         <v>14</v>
@@ -22241,7 +22253,7 @@
         <v>89</v>
       </c>
       <c r="E175" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F175" s="2">
         <v>41664</v>
@@ -22250,12 +22262,12 @@
         <v>41666</v>
       </c>
       <c r="H175" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B176" t="s">
         <v>14</v>
@@ -22267,7 +22279,7 @@
         <v>89</v>
       </c>
       <c r="E176" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F176" s="2">
         <v>41664</v>
@@ -22276,12 +22288,12 @@
         <v>41666</v>
       </c>
       <c r="H176" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B177" t="s">
         <v>14</v>
@@ -22293,7 +22305,7 @@
         <v>89</v>
       </c>
       <c r="E177" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F177" s="2">
         <v>41664</v>
@@ -22302,12 +22314,12 @@
         <v>41666</v>
       </c>
       <c r="H177" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B178" t="s">
         <v>14</v>
@@ -22319,7 +22331,7 @@
         <v>89</v>
       </c>
       <c r="E178" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F178" s="2">
         <v>41664</v>
@@ -22328,12 +22340,12 @@
         <v>41666</v>
       </c>
       <c r="H178" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B179" t="s">
         <v>14</v>
@@ -22345,7 +22357,7 @@
         <v>94.52</v>
       </c>
       <c r="E179" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="F179" s="2">
         <v>41664</v>
@@ -22354,12 +22366,12 @@
         <v>41666</v>
       </c>
       <c r="H179" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B180" t="s">
         <v>14</v>
@@ -22371,7 +22383,7 @@
         <v>97.98999999999999</v>
       </c>
       <c r="E180" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="F180" s="2">
         <v>41684</v>
@@ -22380,12 +22392,12 @@
         <v>41687</v>
       </c>
       <c r="H180" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B181" t="s">
         <v>14</v>
@@ -22397,7 +22409,7 @@
         <v>119</v>
       </c>
       <c r="E181" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F181" s="2">
         <v>41664</v>
@@ -22406,12 +22418,12 @@
         <v>41666</v>
       </c>
       <c r="H181" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B182" t="s">
         <v>14</v>
@@ -22423,7 +22435,7 @@
         <v>209.14</v>
       </c>
       <c r="E182" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F182" s="2">
         <v>41684</v>
@@ -22432,12 +22444,12 @@
         <v>41687</v>
       </c>
       <c r="H182" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B183" t="s">
         <v>14</v>
@@ -22463,7 +22475,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B184" t="s">
         <v>192</v>
@@ -22475,7 +22487,7 @@
         <v>-109.98</v>
       </c>
       <c r="E184" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="F184" s="2">
         <v>41835</v>
@@ -22489,7 +22501,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B185" t="s">
         <v>192</v>
@@ -22501,7 +22513,7 @@
         <v>34.06</v>
       </c>
       <c r="E185" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F185" s="2">
         <v>41835</v>
@@ -22515,7 +22527,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B186" t="s">
         <v>192</v>
@@ -22527,7 +22539,7 @@
         <v>332.19</v>
       </c>
       <c r="E186" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F186" s="2">
         <v>41835</v>
@@ -22541,7 +22553,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B187" t="s">
         <v>192</v>
@@ -22553,7 +22565,7 @@
         <v>944.9400000000001</v>
       </c>
       <c r="E187" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="F187" s="2">
         <v>41835</v>
@@ -22579,7 +22591,7 @@
         <v>-387.81</v>
       </c>
       <c r="E188" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F188" s="2">
         <v>41913</v>
@@ -22605,7 +22617,7 @@
         <v>-14.27</v>
       </c>
       <c r="E189" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F189" s="2">
         <v>41920</v>
@@ -22631,7 +22643,7 @@
         <v>36.74</v>
       </c>
       <c r="E190" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="F190" s="2">
         <v>41920</v>
@@ -22640,7 +22652,7 @@
         <v>41921</v>
       </c>
       <c r="H190" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -22657,7 +22669,7 @@
         <v>38.14</v>
       </c>
       <c r="E191" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="F191" s="2">
         <v>41912</v>
@@ -22666,7 +22678,7 @@
         <v>41913</v>
       </c>
       <c r="H191" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -22683,7 +22695,7 @@
         <v>39</v>
       </c>
       <c r="E192" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F192" s="2">
         <v>41913</v>
@@ -22692,7 +22704,7 @@
         <v>41914</v>
       </c>
       <c r="H192" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -22709,7 +22721,7 @@
         <v>111.38</v>
       </c>
       <c r="E193" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F193" s="2">
         <v>41701</v>
@@ -22735,7 +22747,7 @@
         <v>111.38</v>
       </c>
       <c r="E194" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F194" s="2">
         <v>41701</v>
@@ -22761,7 +22773,7 @@
         <v>111.38</v>
       </c>
       <c r="E195" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F195" s="2">
         <v>41701</v>
@@ -22787,7 +22799,7 @@
         <v>111.38</v>
       </c>
       <c r="E196" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F196" s="2">
         <v>41701</v>
@@ -22813,7 +22825,7 @@
         <v>111.38</v>
       </c>
       <c r="E197" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F197" s="2">
         <v>41701</v>
@@ -22839,7 +22851,7 @@
         <v>129.27</v>
       </c>
       <c r="E198" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F198" s="2">
         <v>41917</v>
@@ -22865,7 +22877,7 @@
         <v>141.29</v>
       </c>
       <c r="E199" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="F199" s="2">
         <v>41917</v>
@@ -22891,7 +22903,7 @@
         <v>159.3</v>
       </c>
       <c r="E200" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="F200" s="2">
         <v>41700</v>
@@ -22900,7 +22912,7 @@
         <v>41702</v>
       </c>
       <c r="H200" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -22917,7 +22929,7 @@
         <v>222.1</v>
       </c>
       <c r="E201" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F201" s="2">
         <v>41701</v>
@@ -22943,7 +22955,7 @@
         <v>270.46</v>
       </c>
       <c r="E202" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F202" s="2">
         <v>41700</v>
@@ -22969,7 +22981,7 @@
         <v>387.81</v>
       </c>
       <c r="E203" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F203" s="2">
         <v>41912</v>
@@ -22995,7 +23007,7 @@
         <v>567.11</v>
       </c>
       <c r="E204" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F204" s="2">
         <v>41912</v>
@@ -23021,7 +23033,7 @@
         <v>3521.4</v>
       </c>
       <c r="E205" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="F205" s="2">
         <v>41700</v>
@@ -23047,7 +23059,7 @@
         <v>38</v>
       </c>
       <c r="E206" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F206" s="2">
         <v>41942</v>
@@ -23073,7 +23085,7 @@
         <v>48.1</v>
       </c>
       <c r="E207" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F207" s="2">
         <v>41942</v>
@@ -23099,7 +23111,7 @@
         <v>52.62</v>
       </c>
       <c r="E208" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F208" s="2">
         <v>41942</v>
@@ -23125,7 +23137,7 @@
         <v>56.96</v>
       </c>
       <c r="E209" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F209" s="2">
         <v>41942</v>
@@ -23151,7 +23163,7 @@
         <v>61.8</v>
       </c>
       <c r="E210" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F210" s="2">
         <v>41942</v>
@@ -23177,7 +23189,7 @@
         <v>62.05</v>
       </c>
       <c r="E211" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F211" s="2">
         <v>41942</v>
@@ -23203,7 +23215,7 @@
         <v>103.01</v>
       </c>
       <c r="E212" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F212" s="2">
         <v>41942</v>
@@ -23229,7 +23241,7 @@
         <v>472.64</v>
       </c>
       <c r="E213" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F213" s="2">
         <v>41942</v>
@@ -23255,7 +23267,7 @@
         <v>94.22</v>
       </c>
       <c r="E214" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="F214" s="2">
         <v>41960</v>
@@ -23264,7 +23276,7 @@
         <v>41962</v>
       </c>
       <c r="H214" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -23281,7 +23293,7 @@
         <v>207.94</v>
       </c>
       <c r="E215" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F215" s="2">
         <v>41960</v>
@@ -23290,7 +23302,7 @@
         <v>41961</v>
       </c>
       <c r="H215" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -23307,7 +23319,7 @@
         <v>885.95</v>
       </c>
       <c r="E216" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F216" s="2">
         <v>41960</v>
@@ -23316,7 +23328,7 @@
         <v>41961</v>
       </c>
       <c r="H216" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -23333,7 +23345,7 @@
         <v>19.63</v>
       </c>
       <c r="E217" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="F217" s="2">
         <v>41693</v>
@@ -23342,7 +23354,7 @@
         <v>41694</v>
       </c>
       <c r="H217" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -23359,7 +23371,7 @@
         <v>20.7</v>
       </c>
       <c r="E218" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F218" s="2">
         <v>41728</v>
@@ -23368,7 +23380,7 @@
         <v>41730</v>
       </c>
       <c r="H218" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -23385,7 +23397,7 @@
         <v>67.48999999999999</v>
       </c>
       <c r="E219" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="F219" s="2">
         <v>41748</v>
@@ -23394,7 +23406,7 @@
         <v>41750</v>
       </c>
       <c r="H219" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -23411,7 +23423,7 @@
         <v>67.48999999999999</v>
       </c>
       <c r="E220" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="F220" s="2">
         <v>41748</v>
@@ -23420,7 +23432,7 @@
         <v>41750</v>
       </c>
       <c r="H220" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -23437,7 +23449,7 @@
         <v>67.48999999999999</v>
       </c>
       <c r="E221" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="F221" s="2">
         <v>41748</v>
@@ -23446,7 +23458,7 @@
         <v>41750</v>
       </c>
       <c r="H221" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -23463,7 +23475,7 @@
         <v>67.48999999999999</v>
       </c>
       <c r="E222" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="F222" s="2">
         <v>41748</v>
@@ -23472,7 +23484,7 @@
         <v>41750</v>
       </c>
       <c r="H222" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -23489,7 +23501,7 @@
         <v>67.48999999999999</v>
       </c>
       <c r="E223" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="F223" s="2">
         <v>41748</v>
@@ -23498,7 +23510,7 @@
         <v>41750</v>
       </c>
       <c r="H223" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -23515,7 +23527,7 @@
         <v>74.98999999999999</v>
       </c>
       <c r="E224" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="F224" s="2">
         <v>41748</v>
@@ -23524,7 +23536,7 @@
         <v>41750</v>
       </c>
       <c r="H224" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -23541,7 +23553,7 @@
         <v>74.98999999999999</v>
       </c>
       <c r="E225" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="F225" s="2">
         <v>41748</v>
@@ -23550,7 +23562,7 @@
         <v>41750</v>
       </c>
       <c r="H225" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -23567,7 +23579,7 @@
         <v>93.53</v>
       </c>
       <c r="E226" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F226" s="2">
         <v>41728</v>
@@ -23576,7 +23588,7 @@
         <v>41730</v>
       </c>
       <c r="H226" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -23593,7 +23605,7 @@
         <v>93.53</v>
       </c>
       <c r="E227" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F227" s="2">
         <v>41728</v>
@@ -23602,7 +23614,7 @@
         <v>41730</v>
       </c>
       <c r="H227" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -23619,7 +23631,7 @@
         <v>93.53</v>
       </c>
       <c r="E228" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F228" s="2">
         <v>41728</v>
@@ -23628,7 +23640,7 @@
         <v>41730</v>
       </c>
       <c r="H228" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -23645,7 +23657,7 @@
         <v>93.53</v>
       </c>
       <c r="E229" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F229" s="2">
         <v>41728</v>
@@ -23654,7 +23666,7 @@
         <v>41730</v>
       </c>
       <c r="H229" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -23671,7 +23683,7 @@
         <v>93.53</v>
       </c>
       <c r="E230" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F230" s="2">
         <v>41728</v>
@@ -23680,7 +23692,7 @@
         <v>41730</v>
       </c>
       <c r="H230" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -23697,7 +23709,7 @@
         <v>93.53</v>
       </c>
       <c r="E231" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F231" s="2">
         <v>41728</v>
@@ -23706,7 +23718,7 @@
         <v>41730</v>
       </c>
       <c r="H231" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -23749,7 +23761,7 @@
         <v>96.95999999999999</v>
       </c>
       <c r="E233" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="F233" s="2">
         <v>41728</v>
@@ -23758,7 +23770,7 @@
         <v>41730</v>
       </c>
       <c r="H233" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -23775,7 +23787,7 @@
         <v>112.62</v>
       </c>
       <c r="E234" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="F234" s="2">
         <v>41922</v>
@@ -23801,7 +23813,7 @@
         <v>145.85</v>
       </c>
       <c r="E235" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="F235" s="2">
         <v>41728</v>
@@ -23827,7 +23839,7 @@
         <v>175</v>
       </c>
       <c r="E236" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F236" s="2">
         <v>41748</v>
@@ -23853,7 +23865,7 @@
         <v>203.39</v>
       </c>
       <c r="E237" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="F237" s="2">
         <v>41742</v>
@@ -23879,7 +23891,7 @@
         <v>203.39</v>
       </c>
       <c r="E238" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="F238" s="2">
         <v>41742</v>
@@ -23905,7 +23917,7 @@
         <v>203.39</v>
       </c>
       <c r="E239" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="F239" s="2">
         <v>41742</v>
@@ -23931,7 +23943,7 @@
         <v>203.39</v>
       </c>
       <c r="E240" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="F240" s="2">
         <v>41742</v>
@@ -23957,7 +23969,7 @@
         <v>203.39</v>
       </c>
       <c r="E241" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="F241" s="2">
         <v>41742</v>
@@ -23983,7 +23995,7 @@
         <v>203.39</v>
       </c>
       <c r="E242" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="F242" s="2">
         <v>41742</v>
@@ -24009,7 +24021,7 @@
         <v>203.39</v>
       </c>
       <c r="E243" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="F243" s="2">
         <v>41742</v>
@@ -24035,7 +24047,7 @@
         <v>270.82</v>
       </c>
       <c r="E244" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="F244" s="2">
         <v>41742</v>
@@ -24061,7 +24073,7 @@
         <v>551.64</v>
       </c>
       <c r="E245" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F245" s="2">
         <v>41693</v>
@@ -24070,7 +24082,7 @@
         <v>41695</v>
       </c>
       <c r="H245" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -24087,7 +24099,7 @@
         <v>551.64</v>
       </c>
       <c r="E246" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F246" s="2">
         <v>41693</v>
@@ -24096,7 +24108,7 @@
         <v>41695</v>
       </c>
       <c r="H246" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -24113,7 +24125,7 @@
         <v>642.84</v>
       </c>
       <c r="E247" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F247" s="2">
         <v>41693</v>
@@ -24122,7 +24134,7 @@
         <v>41695</v>
       </c>
       <c r="H247" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
